--- a/data/Airbus.xlsx
+++ b/data/Airbus.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\extSD\gitRes\StockChooser\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\Python\StockChooser\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" firstSheet="12" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="17 02 2017" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <sheet name="14 03 2017" sheetId="18" r:id="rId18"/>
     <sheet name="15 03 2017" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -342,7 +342,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -354,6 +354,7 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -408,6 +409,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -429,12 +436,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -445,7 +467,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -476,6 +498,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -863,20 +888,20 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="C24" sqref="C20:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" customWidth="1"/>
-    <col min="5" max="5" width="101.6328125" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" customWidth="1"/>
-    <col min="7" max="7" width="16.08984375" customWidth="1"/>
-    <col min="8" max="17" width="7.7265625" customWidth="1"/>
-    <col min="18" max="26" width="16.7265625" customWidth="1"/>
-    <col min="27" max="1025" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="101.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="17" width="7.7109375" customWidth="1"/>
+    <col min="18" max="26" width="16.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
@@ -937,7 +962,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.11865000000000003</v>
+        <v>9.0950000000000031E-2</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1008,11 +1033,11 @@
       </c>
       <c r="C4" s="1">
         <f>D25</f>
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>9.0000000000000011E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1046,11 +1071,11 @@
       </c>
       <c r="C5" s="1">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.88</v>
+        <v>-0.99</v>
       </c>
       <c r="D5" s="1">
         <f ca="1">B5*C5</f>
-        <v>-0.14960000000000001</v>
+        <v>-0.16830000000000001</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1507,7 +1532,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -1545,19 +1570,19 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>0.2</v>
       </c>
-      <c r="C20" s="1">
-        <v>0.5</v>
+      <c r="C20" s="18">
+        <v>0.88</v>
       </c>
       <c r="D20" s="1">
         <f>B20*C20</f>
-        <v>0.1</v>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -1584,19 +1609,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>0.2</v>
       </c>
-      <c r="C21" s="1">
-        <v>-0.5</v>
+      <c r="C21" s="18">
+        <v>-0.72</v>
       </c>
       <c r="D21" s="1">
         <f>B21*C21</f>
-        <v>-0.1</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
@@ -1623,19 +1648,19 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>0.2</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
+      <c r="C22" s="18">
+        <v>0.72</v>
       </c>
       <c r="D22" s="1">
         <f>B22*C22</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -1662,19 +1687,19 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>0.2</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.5</v>
+      <c r="C23" s="18">
+        <v>0.72</v>
       </c>
       <c r="D23" s="1">
         <f>B23*C23</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -1701,19 +1726,19 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>0.2</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
+      <c r="C24" s="18">
+        <v>0.2</v>
       </c>
       <c r="D24" s="1">
         <f>B24*C24</f>
-        <v>0.2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>28</v>
@@ -1746,7 +1771,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1">
         <f>SUM(D20:D24)</f>
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1782,21 +1807,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" customWidth="1"/>
-    <col min="5" max="5" width="66.6328125" customWidth="1"/>
-    <col min="6" max="6" width="6.7265625" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" customWidth="1"/>
-    <col min="8" max="17" width="6.7265625" customWidth="1"/>
-    <col min="18" max="26" width="16.7265625" customWidth="1"/>
-    <col min="27" max="1025" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="66.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="17" width="6.7109375" customWidth="1"/>
+    <col min="18" max="26" width="16.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
@@ -1857,7 +1882,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.36499999999999999</v>
+        <v>0.23490000000000003</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1928,11 +1953,11 @@
       </c>
       <c r="C4" s="1">
         <f>SUM(D20:D24)</f>
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>0.1125</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1966,11 +1991,11 @@
       </c>
       <c r="C5" s="1">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.35</v>
+        <v>-0.23</v>
       </c>
       <c r="D5" s="1">
         <f ca="1">B5*C5</f>
-        <v>5.9499999999999997E-2</v>
+        <v>-3.9100000000000003E-2</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2424,7 +2449,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -2462,19 +2487,19 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>0.2</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
+      <c r="C20" s="18">
+        <v>0.88</v>
       </c>
       <c r="D20" s="1">
         <f>B20*C20</f>
-        <v>0.2</v>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -2501,19 +2526,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>0.2</v>
       </c>
-      <c r="C21" s="1">
-        <v>-0.5</v>
+      <c r="C21" s="18">
+        <v>-0.72</v>
       </c>
       <c r="D21" s="1">
         <f>B21*C21</f>
-        <v>-0.1</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
@@ -2540,19 +2565,19 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>0.2</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
+      <c r="C22" s="18">
+        <v>0.72</v>
       </c>
       <c r="D22" s="1">
         <f>B22*C22</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -2579,19 +2604,19 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>0.2</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.5</v>
+      <c r="C23" s="18">
+        <v>0.72</v>
       </c>
       <c r="D23" s="1">
         <f>B23*C23</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -2618,19 +2643,19 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>0.2</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
+      <c r="C24" s="18">
+        <v>0.2</v>
       </c>
       <c r="D24" s="1">
         <f>B24*C24</f>
-        <v>0.2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>28</v>
@@ -2669,20 +2694,20 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="C24" sqref="C20:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
-    <col min="6" max="6" width="6.7265625" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" customWidth="1"/>
-    <col min="8" max="17" width="6.7265625" customWidth="1"/>
-    <col min="18" max="26" width="16.7265625" customWidth="1"/>
-    <col min="27" max="1025" width="19.1796875" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="17" width="6.7109375" customWidth="1"/>
+    <col min="18" max="26" width="16.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
@@ -2744,7 +2769,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.27330000000000004</v>
+        <v>0.22990000000000002</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2815,11 +2840,11 @@
       </c>
       <c r="C4" s="1">
         <f>SUM(D20:D24)</f>
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>0.1125</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2853,11 +2878,11 @@
       </c>
       <c r="C5" s="1">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.16</v>
+        <v>-0.23</v>
       </c>
       <c r="D5" s="1">
         <f ca="1">B5*C5</f>
-        <v>-2.7200000000000002E-2</v>
+        <v>-3.9100000000000003E-2</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3311,7 +3336,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -3349,19 +3374,19 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>0.2</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
+      <c r="C20" s="18">
+        <v>0.88</v>
       </c>
       <c r="D20" s="1">
         <f>B20*C20</f>
-        <v>0.2</v>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -3388,19 +3413,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>0.2</v>
       </c>
-      <c r="C21" s="1">
-        <v>-0.5</v>
+      <c r="C21" s="18">
+        <v>-0.72</v>
       </c>
       <c r="D21" s="1">
         <f>B21*C21</f>
-        <v>-0.1</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
@@ -3427,19 +3452,19 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>0.2</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
+      <c r="C22" s="18">
+        <v>0.72</v>
       </c>
       <c r="D22" s="1">
         <f>B22*C22</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -3466,19 +3491,19 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>0.2</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.5</v>
+      <c r="C23" s="18">
+        <v>0.72</v>
       </c>
       <c r="D23" s="1">
         <f>B23*C23</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -3505,19 +3530,19 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>0.2</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
+      <c r="C24" s="18">
+        <v>0.2</v>
       </c>
       <c r="D24" s="1">
         <f>B24*C24</f>
-        <v>0.2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>28</v>
@@ -3556,21 +3581,21 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="C24" sqref="C20:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" customWidth="1"/>
-    <col min="5" max="5" width="91.08984375" customWidth="1"/>
-    <col min="6" max="6" width="6.7265625" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" customWidth="1"/>
-    <col min="8" max="17" width="6.7265625" customWidth="1"/>
-    <col min="18" max="19" width="14.7265625" customWidth="1"/>
-    <col min="20" max="26" width="16.7265625" customWidth="1"/>
-    <col min="27" max="1025" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="91.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="17" width="6.7109375" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" customWidth="1"/>
+    <col min="20" max="26" width="16.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
@@ -3631,7 +3656,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f ca="1">SUM(D2:D5)</f>
-        <v>3.0950000000000005E-2</v>
+        <v>0.28885000000000005</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3702,11 +3727,11 @@
       </c>
       <c r="C4" s="1">
         <f>SUM(D20:D24)</f>
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>9.0000000000000011E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -3740,11 +3765,11 @@
       </c>
       <c r="C5" s="1">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.89</v>
+        <v>0.68</v>
       </c>
       <c r="D5" s="1">
         <f ca="1">B5*C5</f>
-        <v>-0.15130000000000002</v>
+        <v>0.11560000000000002</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -4200,7 +4225,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -4238,19 +4263,19 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>0.2</v>
       </c>
-      <c r="C20" s="1">
-        <v>0.5</v>
+      <c r="C20" s="18">
+        <v>0.88</v>
       </c>
       <c r="D20" s="1">
         <f>B20*C20</f>
-        <v>0.1</v>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -4277,19 +4302,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>0.2</v>
       </c>
-      <c r="C21" s="1">
-        <v>-0.5</v>
+      <c r="C21" s="18">
+        <v>-0.72</v>
       </c>
       <c r="D21" s="1">
         <f>B21*C21</f>
-        <v>-0.1</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
@@ -4316,19 +4341,19 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>0.2</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
+      <c r="C22" s="18">
+        <v>0.72</v>
       </c>
       <c r="D22" s="1">
         <f>B22*C22</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -4355,19 +4380,19 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>0.2</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.5</v>
+      <c r="C23" s="18">
+        <v>0.72</v>
       </c>
       <c r="D23" s="1">
         <f>B23*C23</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -4394,19 +4419,19 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>0.2</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
+      <c r="C24" s="18">
+        <v>0.2</v>
       </c>
       <c r="D24" s="1">
         <f>B24*C24</f>
-        <v>0.2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>28</v>
@@ -4445,20 +4470,20 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="C24" sqref="C20:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" customWidth="1"/>
-    <col min="5" max="5" width="102.08984375" customWidth="1"/>
-    <col min="6" max="6" width="6.7265625" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" customWidth="1"/>
-    <col min="8" max="17" width="6.7265625" customWidth="1"/>
-    <col min="18" max="26" width="16.7265625" customWidth="1"/>
-    <col min="27" max="1025" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="102.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="17" width="6.7109375" customWidth="1"/>
+    <col min="18" max="26" width="16.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
@@ -4519,7 +4544,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.31510000000000005</v>
+        <v>0.36560000000000004</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -4590,11 +4615,11 @@
       </c>
       <c r="C4" s="1">
         <f>SUM(D20:D24)</f>
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>9.0000000000000011E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -4628,11 +4653,11 @@
       </c>
       <c r="C5" s="1">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.27</v>
+        <v>0.08</v>
       </c>
       <c r="D5" s="1">
         <f ca="1">B5*C5</f>
-        <v>-4.5900000000000003E-2</v>
+        <v>1.3600000000000001E-2</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -5086,7 +5111,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -5124,19 +5149,19 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>0.2</v>
       </c>
-      <c r="C20" s="1">
-        <v>0.5</v>
+      <c r="C20" s="18">
+        <v>0.88</v>
       </c>
       <c r="D20" s="1">
         <f>B20*C20</f>
-        <v>0.1</v>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -5163,19 +5188,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>0.2</v>
       </c>
-      <c r="C21" s="1">
-        <v>-0.5</v>
+      <c r="C21" s="18">
+        <v>-0.72</v>
       </c>
       <c r="D21" s="1">
         <f>B21*C21</f>
-        <v>-0.1</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
@@ -5202,19 +5227,19 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>0.2</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
+      <c r="C22" s="18">
+        <v>0.72</v>
       </c>
       <c r="D22" s="1">
         <f>B22*C22</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -5241,19 +5266,19 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>0.2</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.5</v>
+      <c r="C23" s="18">
+        <v>0.72</v>
       </c>
       <c r="D23" s="1">
         <f>B23*C23</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -5280,19 +5305,19 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>0.2</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
+      <c r="C24" s="18">
+        <v>0.2</v>
       </c>
       <c r="D24" s="1">
         <f>B24*C24</f>
-        <v>0.2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>28</v>
@@ -5331,20 +5356,20 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="C24" sqref="C20:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" customWidth="1"/>
-    <col min="5" max="5" width="103.54296875" customWidth="1"/>
-    <col min="6" max="6" width="6.7265625" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" customWidth="1"/>
-    <col min="8" max="17" width="6.7265625" customWidth="1"/>
-    <col min="18" max="26" width="16.7265625" customWidth="1"/>
-    <col min="27" max="1025" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="103.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="17" width="6.7109375" customWidth="1"/>
+    <col min="18" max="26" width="16.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
@@ -5405,7 +5430,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.10820000000000002</v>
+        <v>7.3700000000000015E-2</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -5476,11 +5501,11 @@
       </c>
       <c r="C4" s="1">
         <f>SUM(D20:D24)</f>
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>9.0000000000000011E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -5514,11 +5539,11 @@
       </c>
       <c r="C5" s="1">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.28999999999999998</v>
+        <v>-0.44</v>
       </c>
       <c r="D5" s="1">
         <f ca="1">B5*C5</f>
-        <v>-4.9300000000000004E-2</v>
+        <v>-7.4800000000000005E-2</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -5972,7 +5997,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -6010,19 +6035,19 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>0.2</v>
       </c>
-      <c r="C20" s="1">
-        <v>0.5</v>
+      <c r="C20" s="18">
+        <v>0.88</v>
       </c>
       <c r="D20" s="1">
         <f>B20*C20</f>
-        <v>0.1</v>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -6049,19 +6074,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>0.2</v>
       </c>
-      <c r="C21" s="1">
-        <v>-0.5</v>
+      <c r="C21" s="18">
+        <v>-0.72</v>
       </c>
       <c r="D21" s="1">
         <f>B21*C21</f>
-        <v>-0.1</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
@@ -6088,19 +6113,19 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>0.2</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
+      <c r="C22" s="18">
+        <v>0.72</v>
       </c>
       <c r="D22" s="1">
         <f>B22*C22</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -6127,19 +6152,19 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>0.2</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.5</v>
+      <c r="C23" s="18">
+        <v>0.72</v>
       </c>
       <c r="D23" s="1">
         <f>B23*C23</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -6166,19 +6191,19 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>0.2</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
+      <c r="C24" s="18">
+        <v>0.2</v>
       </c>
       <c r="D24" s="1">
         <f>B24*C24</f>
-        <v>0.2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>28</v>
@@ -6217,20 +6242,20 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="C24" sqref="C20:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" customWidth="1"/>
-    <col min="5" max="5" width="103.08984375" customWidth="1"/>
-    <col min="6" max="6" width="6.7265625" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" customWidth="1"/>
-    <col min="8" max="17" width="6.7265625" customWidth="1"/>
-    <col min="18" max="26" width="16.7265625" customWidth="1"/>
-    <col min="27" max="1025" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="103.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="17" width="6.7109375" customWidth="1"/>
+    <col min="18" max="26" width="16.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
@@ -6291,7 +6316,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.22880000000000006</v>
+        <v>0.31330000000000008</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -6362,11 +6387,11 @@
       </c>
       <c r="C4" s="1">
         <f>SUM(D20:D24)</f>
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>9.0000000000000011E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -6400,11 +6425,11 @@
       </c>
       <c r="C5" s="1">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.16</v>
+        <v>0.39</v>
       </c>
       <c r="D5" s="1">
         <f ca="1">B5*C5</f>
-        <v>-2.7200000000000002E-2</v>
+        <v>6.6300000000000012E-2</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -6858,7 +6883,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -6896,19 +6921,19 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>0.2</v>
       </c>
-      <c r="C20" s="1">
-        <v>0.5</v>
+      <c r="C20" s="18">
+        <v>0.88</v>
       </c>
       <c r="D20" s="1">
         <f>B20*C20</f>
-        <v>0.1</v>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -6935,19 +6960,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>0.2</v>
       </c>
-      <c r="C21" s="1">
-        <v>-0.5</v>
+      <c r="C21" s="18">
+        <v>-0.72</v>
       </c>
       <c r="D21" s="1">
         <f>B21*C21</f>
-        <v>-0.1</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
@@ -6974,19 +6999,19 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>0.2</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
+      <c r="C22" s="18">
+        <v>0.72</v>
       </c>
       <c r="D22" s="1">
         <f>B22*C22</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -7013,19 +7038,19 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>0.2</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.5</v>
+      <c r="C23" s="18">
+        <v>0.72</v>
       </c>
       <c r="D23" s="1">
         <f>B23*C23</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -7052,19 +7077,19 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>0.2</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
+      <c r="C24" s="18">
+        <v>0.2</v>
       </c>
       <c r="D24" s="1">
         <f>B24*C24</f>
-        <v>0.2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>28</v>
@@ -7103,20 +7128,20 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C24" sqref="C20:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="2" max="3" width="16.36328125" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" customWidth="1"/>
-    <col min="5" max="5" width="99.6328125" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" customWidth="1"/>
-    <col min="7" max="7" width="18.36328125" customWidth="1"/>
-    <col min="8" max="17" width="8.81640625" customWidth="1"/>
-    <col min="18" max="26" width="16.7265625" customWidth="1"/>
-    <col min="27" max="1025" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="99.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="17" width="8.85546875" customWidth="1"/>
+    <col min="18" max="26" width="16.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
@@ -7177,7 +7202,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.17590000000000003</v>
+        <v>0.18050000000000002</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -7248,11 +7273,11 @@
       </c>
       <c r="C4" s="1">
         <f>SUM(D20:D24)</f>
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>9.0000000000000011E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -7286,11 +7311,11 @@
       </c>
       <c r="C5" s="1">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="D5" s="1">
         <f ca="1">B5*C5</f>
-        <v>5.4400000000000004E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -7744,7 +7769,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -7782,19 +7807,19 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>0.2</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.5</v>
+      <c r="C20" s="18">
+        <v>0.88</v>
       </c>
       <c r="D20" s="1">
         <f>B20*C20</f>
-        <v>0.1</v>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -7821,19 +7846,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>0.2</v>
       </c>
-      <c r="C21" s="1">
-        <v>-0.5</v>
+      <c r="C21" s="18">
+        <v>-0.72</v>
       </c>
       <c r="D21" s="1">
         <f>B21*C21</f>
-        <v>-0.1</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
@@ -7860,19 +7885,19 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>0.2</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
+      <c r="C22" s="18">
+        <v>0.72</v>
       </c>
       <c r="D22" s="1">
         <f>B22*C22</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -7899,19 +7924,19 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>0.2</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.5</v>
+      <c r="C23" s="18">
+        <v>0.72</v>
       </c>
       <c r="D23" s="1">
         <f>B23*C23</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -7938,19 +7963,19 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>0.2</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
+      <c r="C24" s="18">
+        <v>0.2</v>
       </c>
       <c r="D24" s="1">
         <f>B24*C24</f>
-        <v>0.2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>28</v>
@@ -7988,21 +8013,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="C24" sqref="C20:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="2" max="3" width="16.36328125" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" customWidth="1"/>
-    <col min="5" max="5" width="100.81640625" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" customWidth="1"/>
-    <col min="7" max="7" width="18.36328125" customWidth="1"/>
-    <col min="8" max="17" width="8.81640625" customWidth="1"/>
-    <col min="18" max="26" width="16.7265625" customWidth="1"/>
-    <col min="27" max="1025" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="100.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="17" width="8.85546875" customWidth="1"/>
+    <col min="18" max="26" width="16.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
@@ -8063,7 +8088,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.22690000000000005</v>
+        <v>0.23490000000000003</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -8134,11 +8159,11 @@
       </c>
       <c r="C4" s="1">
         <f>SUM(D20:D24)</f>
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>9.0000000000000011E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -8172,11 +8197,11 @@
       </c>
       <c r="C5" s="1">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.37</v>
+        <v>0.47</v>
       </c>
       <c r="D5" s="1">
         <f ca="1">B5*C5</f>
-        <v>6.2899999999999998E-2</v>
+        <v>7.9899999999999999E-2</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -8630,7 +8655,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -8668,19 +8693,19 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>0.2</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.5</v>
+      <c r="C20" s="18">
+        <v>0.88</v>
       </c>
       <c r="D20" s="1">
         <f>B20*C20</f>
-        <v>0.1</v>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -8707,19 +8732,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>0.2</v>
       </c>
-      <c r="C21" s="1">
-        <v>-0.5</v>
+      <c r="C21" s="18">
+        <v>-0.72</v>
       </c>
       <c r="D21" s="1">
         <f>B21*C21</f>
-        <v>-0.1</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
@@ -8746,19 +8771,19 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>0.2</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
+      <c r="C22" s="18">
+        <v>0.72</v>
       </c>
       <c r="D22" s="1">
         <f>B22*C22</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -8785,19 +8810,19 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>0.2</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.5</v>
+      <c r="C23" s="18">
+        <v>0.72</v>
       </c>
       <c r="D23" s="1">
         <f>B23*C23</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -8824,19 +8849,19 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>0.2</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
+      <c r="C24" s="18">
+        <v>0.2</v>
       </c>
       <c r="D24" s="1">
         <f>B24*C24</f>
-        <v>0.2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>28</v>
@@ -8878,20 +8903,20 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C24" sqref="C20:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="2" max="3" width="16.36328125" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" customWidth="1"/>
-    <col min="5" max="5" width="98.90625" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" customWidth="1"/>
-    <col min="7" max="7" width="18.36328125" customWidth="1"/>
-    <col min="8" max="17" width="8.81640625" customWidth="1"/>
-    <col min="18" max="26" width="16.7265625" customWidth="1"/>
-    <col min="27" max="1025" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="98.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="17" width="8.85546875" customWidth="1"/>
+    <col min="18" max="26" width="16.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
@@ -8952,7 +8977,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.58350000000000013</v>
+        <v>0.31100000000000005</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -9023,11 +9048,11 @@
       </c>
       <c r="C4" s="1">
         <f>SUM(D20:D24)</f>
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>9.0000000000000011E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -9061,11 +9086,11 @@
       </c>
       <c r="C5" s="1">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.85</v>
+        <v>-0.7</v>
       </c>
       <c r="D5" s="1">
         <f ca="1">B5*C5</f>
-        <v>0.14450000000000002</v>
+        <v>-0.11899999999999999</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -9519,7 +9544,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -9557,19 +9582,19 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>0.2</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.5</v>
+      <c r="C20" s="18">
+        <v>0.88</v>
       </c>
       <c r="D20" s="1">
         <f>B20*C20</f>
-        <v>0.1</v>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -9596,19 +9621,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>0.2</v>
       </c>
-      <c r="C21" s="1">
-        <v>-0.5</v>
+      <c r="C21" s="18">
+        <v>-0.72</v>
       </c>
       <c r="D21" s="1">
         <f>B21*C21</f>
-        <v>-0.1</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
@@ -9635,19 +9660,19 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>0.2</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
+      <c r="C22" s="18">
+        <v>0.72</v>
       </c>
       <c r="D22" s="1">
         <f>B22*C22</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -9674,19 +9699,19 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>0.2</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.5</v>
+      <c r="C23" s="18">
+        <v>0.72</v>
       </c>
       <c r="D23" s="1">
         <f>B23*C23</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -9713,19 +9738,19 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>0.2</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
+      <c r="C24" s="18">
+        <v>0.2</v>
       </c>
       <c r="D24" s="1">
         <f>B24*C24</f>
-        <v>0.2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>28</v>
@@ -9763,21 +9788,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="C24" sqref="C20:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="2" max="3" width="16.36328125" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" customWidth="1"/>
-    <col min="5" max="5" width="126.90625" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" customWidth="1"/>
-    <col min="7" max="7" width="18.36328125" customWidth="1"/>
-    <col min="8" max="17" width="8.81640625" customWidth="1"/>
-    <col min="18" max="26" width="16.7265625" customWidth="1"/>
-    <col min="27" max="1025" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="126.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="17" width="8.85546875" customWidth="1"/>
+    <col min="18" max="26" width="16.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
@@ -9838,7 +9863,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.36870000000000003</v>
+        <v>0.26450000000000001</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -9909,11 +9934,11 @@
       </c>
       <c r="C4" s="1">
         <f>SUM(D20:D24)</f>
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>9.0000000000000011E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -9947,11 +9972,11 @@
       </c>
       <c r="C5" s="1">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.19</v>
+        <v>-0.75</v>
       </c>
       <c r="D5" s="1">
         <f ca="1">B5*C5</f>
-        <v>-3.2300000000000002E-2</v>
+        <v>-0.1275</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -10405,7 +10430,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -10443,19 +10468,19 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>0.2</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.5</v>
+      <c r="C20" s="18">
+        <v>0.88</v>
       </c>
       <c r="D20" s="1">
         <f>B20*C20</f>
-        <v>0.1</v>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -10482,19 +10507,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>0.2</v>
       </c>
-      <c r="C21" s="1">
-        <v>-0.5</v>
+      <c r="C21" s="18">
+        <v>-0.72</v>
       </c>
       <c r="D21" s="1">
         <f>B21*C21</f>
-        <v>-0.1</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
@@ -10521,19 +10546,19 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>0.2</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
+      <c r="C22" s="18">
+        <v>0.72</v>
       </c>
       <c r="D22" s="1">
         <f>B22*C22</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -10560,19 +10585,19 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>0.2</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.5</v>
+      <c r="C23" s="18">
+        <v>0.72</v>
       </c>
       <c r="D23" s="1">
         <f>B23*C23</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -10599,19 +10624,19 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>0.2</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
+      <c r="C24" s="18">
+        <v>0.2</v>
       </c>
       <c r="D24" s="1">
         <f>B24*C24</f>
-        <v>0.2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>28</v>
@@ -10650,20 +10675,20 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="C24" sqref="C20:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" customWidth="1"/>
-    <col min="5" max="5" width="95.1796875" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" customWidth="1"/>
-    <col min="7" max="7" width="16.08984375" customWidth="1"/>
-    <col min="8" max="17" width="7.7265625" customWidth="1"/>
-    <col min="18" max="26" width="16.7265625" customWidth="1"/>
-    <col min="27" max="1025" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="95.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="17" width="7.7109375" customWidth="1"/>
+    <col min="18" max="26" width="16.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
@@ -10724,7 +10749,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.25135000000000002</v>
+        <v>8.9350000000000013E-2</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -10795,11 +10820,11 @@
       </c>
       <c r="C4" s="1">
         <f>SUM(D20:D24)</f>
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>9.0000000000000011E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -10833,11 +10858,11 @@
       </c>
       <c r="C5" s="1">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.57999999999999996</v>
+        <v>-0.32</v>
       </c>
       <c r="D5" s="1">
         <f ca="1">B5*C5</f>
-        <v>9.8600000000000007E-2</v>
+        <v>-5.4400000000000004E-2</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -11291,7 +11316,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -11329,19 +11354,19 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>0.2</v>
       </c>
-      <c r="C20" s="1">
-        <v>0.5</v>
+      <c r="C20" s="18">
+        <v>0.88</v>
       </c>
       <c r="D20" s="1">
         <f>B20*C20</f>
-        <v>0.1</v>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -11368,19 +11393,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>0.2</v>
       </c>
-      <c r="C21" s="1">
-        <v>-0.5</v>
+      <c r="C21" s="18">
+        <v>-0.72</v>
       </c>
       <c r="D21" s="1">
         <f>B21*C21</f>
-        <v>-0.1</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
@@ -11407,19 +11432,19 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>0.2</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
+      <c r="C22" s="18">
+        <v>0.72</v>
       </c>
       <c r="D22" s="1">
         <f>B22*C22</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -11446,19 +11471,19 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>0.2</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.5</v>
+      <c r="C23" s="18">
+        <v>0.72</v>
       </c>
       <c r="D23" s="1">
         <f>B23*C23</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -11485,19 +11510,19 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>0.2</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
+      <c r="C24" s="18">
+        <v>0.2</v>
       </c>
       <c r="D24" s="1">
         <f>B24*C24</f>
-        <v>0.2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>28</v>
@@ -11536,20 +11561,20 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="C24" sqref="C20:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
     <col min="5" max="5" width="95" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" customWidth="1"/>
-    <col min="7" max="7" width="16.08984375" customWidth="1"/>
-    <col min="8" max="17" width="7.7265625" customWidth="1"/>
-    <col min="18" max="26" width="16.7265625" customWidth="1"/>
-    <col min="27" max="1025" width="19.1796875" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="17" width="7.7109375" customWidth="1"/>
+    <col min="18" max="26" width="16.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
@@ -11610,7 +11635,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.34050000000000008</v>
+        <v>0.22440000000000004</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -11681,11 +11706,11 @@
       </c>
       <c r="C4" s="1">
         <f>SUM(D20:D24)</f>
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>9.0000000000000011E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -11719,11 +11744,11 @@
       </c>
       <c r="C5" s="1">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.05</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="D5" s="1">
         <f ca="1">B5*C5</f>
-        <v>8.5000000000000006E-3</v>
+        <v>-9.8600000000000007E-2</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -12177,7 +12202,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -12215,19 +12240,19 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>0.2</v>
       </c>
-      <c r="C20" s="1">
-        <v>0.5</v>
+      <c r="C20" s="18">
+        <v>0.88</v>
       </c>
       <c r="D20" s="1">
         <f>B20*C20</f>
-        <v>0.1</v>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -12254,19 +12279,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>0.2</v>
       </c>
-      <c r="C21" s="1">
-        <v>-0.5</v>
+      <c r="C21" s="18">
+        <v>-0.72</v>
       </c>
       <c r="D21" s="1">
         <f>B21*C21</f>
-        <v>-0.1</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
@@ -12293,19 +12318,19 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>0.2</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
+      <c r="C22" s="18">
+        <v>0.72</v>
       </c>
       <c r="D22" s="1">
         <f>B22*C22</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -12332,19 +12357,19 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>0.2</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.5</v>
+      <c r="C23" s="18">
+        <v>0.72</v>
       </c>
       <c r="D23" s="1">
         <f>B23*C23</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -12371,19 +12396,19 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>0.2</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
+      <c r="C24" s="18">
+        <v>0.2</v>
       </c>
       <c r="D24" s="1">
         <f>B24*C24</f>
-        <v>0.2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>28</v>
@@ -12422,20 +12447,20 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="C24" sqref="C20:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" customWidth="1"/>
-    <col min="5" max="5" width="101.81640625" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" customWidth="1"/>
-    <col min="7" max="7" width="16.08984375" customWidth="1"/>
-    <col min="8" max="17" width="7.7265625" customWidth="1"/>
-    <col min="18" max="26" width="16.7265625" customWidth="1"/>
-    <col min="27" max="1025" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="101.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="17" width="7.7109375" customWidth="1"/>
+    <col min="18" max="26" width="16.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
@@ -12496,7 +12521,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.32469999999999999</v>
+        <v>0.33099999999999996</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -12567,11 +12592,11 @@
       </c>
       <c r="C4" s="1">
         <f>SUM(D20:D24)</f>
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>9.0000000000000011E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -12605,11 +12630,11 @@
       </c>
       <c r="C5" s="1">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.74</v>
+        <v>-0.65</v>
       </c>
       <c r="D5" s="1">
         <f ca="1">B5*C5</f>
-        <v>-0.1258</v>
+        <v>-0.11050000000000001</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -13063,7 +13088,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -13101,19 +13126,19 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>0.2</v>
       </c>
-      <c r="C20" s="1">
-        <v>0.5</v>
+      <c r="C20" s="18">
+        <v>0.88</v>
       </c>
       <c r="D20" s="1">
         <f>B20*C20</f>
-        <v>0.1</v>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -13140,19 +13165,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>0.2</v>
       </c>
-      <c r="C21" s="1">
-        <v>-0.5</v>
+      <c r="C21" s="18">
+        <v>-0.72</v>
       </c>
       <c r="D21" s="1">
         <f>B21*C21</f>
-        <v>-0.1</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
@@ -13179,19 +13204,19 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>0.2</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
+      <c r="C22" s="18">
+        <v>0.72</v>
       </c>
       <c r="D22" s="1">
         <f>B22*C22</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -13218,19 +13243,19 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>0.2</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.5</v>
+      <c r="C23" s="18">
+        <v>0.72</v>
       </c>
       <c r="D23" s="1">
         <f>B23*C23</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -13257,19 +13282,19 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>0.2</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
+      <c r="C24" s="18">
+        <v>0.2</v>
       </c>
       <c r="D24" s="1">
         <f>B24*C24</f>
-        <v>0.2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>28</v>
@@ -13308,20 +13333,20 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="C24" sqref="C20:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" customWidth="1"/>
-    <col min="5" max="5" width="102.7265625" customWidth="1"/>
-    <col min="6" max="6" width="6.7265625" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" customWidth="1"/>
-    <col min="8" max="17" width="6.7265625" customWidth="1"/>
-    <col min="18" max="26" width="16.7265625" customWidth="1"/>
-    <col min="27" max="1025" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="102.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="17" width="6.7109375" customWidth="1"/>
+    <col min="18" max="26" width="16.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
@@ -13382,7 +13407,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.55725000000000002</v>
+        <v>0.28475000000000006</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -13453,11 +13478,11 @@
       </c>
       <c r="C4" s="1">
         <f>SUM(D20:D24)</f>
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>9.0000000000000011E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -13491,11 +13516,11 @@
       </c>
       <c r="C5" s="1">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.85</v>
+        <v>-0.7</v>
       </c>
       <c r="D5" s="1">
         <f ca="1">B5*C5</f>
-        <v>0.14450000000000002</v>
+        <v>-0.11899999999999999</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -13949,7 +13974,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -13987,19 +14012,19 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>0.2</v>
       </c>
-      <c r="C20" s="1">
-        <v>0.5</v>
+      <c r="C20" s="18">
+        <v>0.88</v>
       </c>
       <c r="D20" s="1">
         <f>B20*C20</f>
-        <v>0.1</v>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -14026,19 +14051,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>0.2</v>
       </c>
-      <c r="C21" s="1">
-        <v>-0.5</v>
+      <c r="C21" s="18">
+        <v>-0.72</v>
       </c>
       <c r="D21" s="1">
         <f>B21*C21</f>
-        <v>-0.1</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
@@ -14065,19 +14090,19 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>0.2</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
+      <c r="C22" s="18">
+        <v>0.72</v>
       </c>
       <c r="D22" s="1">
         <f>B22*C22</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -14104,19 +14129,19 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>0.2</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.5</v>
+      <c r="C23" s="18">
+        <v>0.72</v>
       </c>
       <c r="D23" s="1">
         <f>B23*C23</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -14143,19 +14168,19 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>0.2</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
+      <c r="C24" s="18">
+        <v>0.2</v>
       </c>
       <c r="D24" s="1">
         <f>B24*C24</f>
-        <v>0.2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>28</v>
@@ -14194,20 +14219,20 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="C24" sqref="C20:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" customWidth="1"/>
-    <col min="5" max="5" width="98.90625" customWidth="1"/>
-    <col min="6" max="6" width="6.7265625" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" customWidth="1"/>
-    <col min="8" max="17" width="6.7265625" customWidth="1"/>
-    <col min="18" max="26" width="16.7265625" customWidth="1"/>
-    <col min="27" max="1025" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="98.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="17" width="6.7109375" customWidth="1"/>
+    <col min="18" max="26" width="16.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
@@ -14268,7 +14293,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.23300000000000004</v>
+        <v>0.31240000000000001</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -14339,11 +14364,11 @@
       </c>
       <c r="C4" s="1">
         <f>SUM(D20:D24)</f>
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>9.0000000000000011E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -14377,11 +14402,11 @@
       </c>
       <c r="C5" s="1">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.7</v>
+        <v>-0.18</v>
       </c>
       <c r="D5" s="1">
         <f ca="1">B5*C5</f>
-        <v>-0.11899999999999999</v>
+        <v>-3.0600000000000002E-2</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -14835,7 +14860,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -14873,19 +14898,19 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>0.2</v>
       </c>
-      <c r="C20" s="1">
-        <v>0.5</v>
+      <c r="C20" s="18">
+        <v>0.88</v>
       </c>
       <c r="D20" s="1">
         <f>B20*C20</f>
-        <v>0.1</v>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -14912,19 +14937,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>0.2</v>
       </c>
-      <c r="C21" s="1">
-        <v>-0.5</v>
+      <c r="C21" s="18">
+        <v>-0.72</v>
       </c>
       <c r="D21" s="1">
         <f>B21*C21</f>
-        <v>-0.1</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
@@ -14951,19 +14976,19 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>0.2</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
+      <c r="C22" s="18">
+        <v>0.72</v>
       </c>
       <c r="D22" s="1">
         <f>B22*C22</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -14990,19 +15015,19 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>0.2</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.5</v>
+      <c r="C23" s="18">
+        <v>0.72</v>
       </c>
       <c r="D23" s="1">
         <f>B23*C23</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -15029,19 +15054,19 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>0.2</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
+      <c r="C24" s="18">
+        <v>0.2</v>
       </c>
       <c r="D24" s="1">
         <f>B24*C24</f>
-        <v>0.2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>28</v>
@@ -15166,20 +15191,20 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="C24" sqref="C20:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" customWidth="1"/>
-    <col min="5" max="5" width="88.54296875" customWidth="1"/>
-    <col min="6" max="6" width="6.7265625" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" customWidth="1"/>
-    <col min="8" max="17" width="6.7265625" customWidth="1"/>
-    <col min="18" max="26" width="16.7265625" customWidth="1"/>
-    <col min="27" max="1025" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="88.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="17" width="6.7109375" customWidth="1"/>
+    <col min="18" max="26" width="16.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
@@ -15240,7 +15265,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.52310000000000001</v>
+        <v>0.28250000000000003</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -15311,11 +15336,11 @@
       </c>
       <c r="C4" s="1">
         <f>SUM(D20:D24)</f>
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>0.1125</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -15349,11 +15374,11 @@
       </c>
       <c r="C5" s="1">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.53</v>
+        <v>-0.7</v>
       </c>
       <c r="D5" s="1">
         <f ca="1">B5*C5</f>
-        <v>9.0100000000000013E-2</v>
+        <v>-0.11899999999999999</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -15807,7 +15832,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -15845,19 +15870,19 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>0.2</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
+      <c r="C20" s="18">
+        <v>0.88</v>
       </c>
       <c r="D20" s="1">
         <f>B20*C20</f>
-        <v>0.2</v>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -15884,19 +15909,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>0.2</v>
       </c>
-      <c r="C21" s="1">
-        <v>-0.5</v>
+      <c r="C21" s="18">
+        <v>-0.72</v>
       </c>
       <c r="D21" s="1">
         <f>B21*C21</f>
-        <v>-0.1</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
@@ -15923,19 +15948,19 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>0.2</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
+      <c r="C22" s="18">
+        <v>0.72</v>
       </c>
       <c r="D22" s="1">
         <f>B22*C22</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -15962,19 +15987,19 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>0.2</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.5</v>
+      <c r="C23" s="18">
+        <v>0.72</v>
       </c>
       <c r="D23" s="1">
         <f>B23*C23</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -16001,19 +16026,19 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>0.2</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
+      <c r="C24" s="18">
+        <v>0.2</v>
       </c>
       <c r="D24" s="1">
         <f>B24*C24</f>
-        <v>0.2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>28</v>
@@ -16052,20 +16077,20 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="C24" sqref="C20:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" customWidth="1"/>
-    <col min="5" max="5" width="98.36328125" customWidth="1"/>
-    <col min="6" max="6" width="6.7265625" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" customWidth="1"/>
-    <col min="8" max="17" width="6.7265625" customWidth="1"/>
-    <col min="18" max="26" width="16.7265625" customWidth="1"/>
-    <col min="27" max="1025" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="98.42578125" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="17" width="6.7109375" customWidth="1"/>
+    <col min="18" max="26" width="16.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
@@ -16126,7 +16151,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.46539999999999998</v>
+        <v>0.47470000000000001</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -16197,11 +16222,11 @@
       </c>
       <c r="C4" s="1">
         <f>SUM(D20:D24)</f>
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>0.1125</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -16235,11 +16260,11 @@
       </c>
       <c r="C5" s="1">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.02</v>
+        <v>0.26</v>
       </c>
       <c r="D5" s="1">
         <f ca="1">B5*C5</f>
-        <v>3.4000000000000002E-3</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -16693,7 +16718,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -16731,19 +16756,19 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>0.2</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
+      <c r="C20" s="18">
+        <v>0.88</v>
       </c>
       <c r="D20" s="1">
         <f>B20*C20</f>
-        <v>0.2</v>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -16770,19 +16795,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>0.2</v>
       </c>
-      <c r="C21" s="1">
-        <v>-0.5</v>
+      <c r="C21" s="18">
+        <v>-0.72</v>
       </c>
       <c r="D21" s="1">
         <f>B21*C21</f>
-        <v>-0.1</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
@@ -16809,19 +16834,19 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>0.2</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
+      <c r="C22" s="18">
+        <v>0.72</v>
       </c>
       <c r="D22" s="1">
         <f>B22*C22</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -16848,19 +16873,19 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>0.2</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.5</v>
+      <c r="C23" s="18">
+        <v>0.72</v>
       </c>
       <c r="D23" s="1">
         <f>B23*C23</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -16887,19 +16912,19 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>0.2</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
+      <c r="C24" s="18">
+        <v>0.2</v>
       </c>
       <c r="D24" s="1">
         <f>B24*C24</f>
-        <v>0.2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>28</v>
@@ -16938,20 +16963,20 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="C24" sqref="C20:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" customWidth="1"/>
-    <col min="5" max="5" width="98.36328125" customWidth="1"/>
-    <col min="6" max="6" width="6.7265625" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" customWidth="1"/>
-    <col min="8" max="17" width="6.7265625" customWidth="1"/>
-    <col min="18" max="26" width="16.7265625" customWidth="1"/>
-    <col min="27" max="1025" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="98.42578125" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="17" width="6.7109375" customWidth="1"/>
+    <col min="18" max="26" width="16.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
@@ -17012,7 +17037,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.45039999999999997</v>
+        <v>0.22</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -17083,11 +17108,11 @@
       </c>
       <c r="C4" s="1">
         <f>SUM(D20:D24)</f>
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>0.1125</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -17121,11 +17146,11 @@
       </c>
       <c r="C5" s="1">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.17</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="1">
         <f ca="1">B5*C5</f>
-        <v>2.8900000000000006E-2</v>
+        <v>-0.17</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -17579,7 +17604,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -17617,19 +17642,19 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>0.2</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
+      <c r="C20" s="18">
+        <v>0.88</v>
       </c>
       <c r="D20" s="1">
         <f>B20*C20</f>
-        <v>0.2</v>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -17656,19 +17681,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>0.2</v>
       </c>
-      <c r="C21" s="1">
-        <v>-0.5</v>
+      <c r="C21" s="18">
+        <v>-0.72</v>
       </c>
       <c r="D21" s="1">
         <f>B21*C21</f>
-        <v>-0.1</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
@@ -17695,19 +17720,19 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>0.2</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
+      <c r="C22" s="18">
+        <v>0.72</v>
       </c>
       <c r="D22" s="1">
         <f>B22*C22</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -17734,19 +17759,19 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>0.2</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.5</v>
+      <c r="C23" s="18">
+        <v>0.72</v>
       </c>
       <c r="D23" s="1">
         <f>B23*C23</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -17773,19 +17798,19 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>0.2</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
+      <c r="C24" s="18">
+        <v>0.2</v>
       </c>
       <c r="D24" s="1">
         <f>B24*C24</f>
-        <v>0.2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>28</v>

--- a/data/Airbus.xlsx
+++ b/data/Airbus.xlsx
@@ -1,30 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\Python\StockChooser\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
-    <sheet name="24 02 2017" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="27 02 2017" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="28 02 2017" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="01 03 2017" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="02 03 2017" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="03 03 2017" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="06 03 2017" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="07 03 2017" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="08 03 2017" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="09 03 2017" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="10 03 2017" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="13 03 2017" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="14 03 2017" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="15 03 2017" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="16 03 2017" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="24 02 2017" sheetId="1" r:id="rId1"/>
+    <sheet name="27 02 2017" sheetId="2" r:id="rId2"/>
+    <sheet name="28 02 2017" sheetId="3" r:id="rId3"/>
+    <sheet name="01 03 2017" sheetId="4" r:id="rId4"/>
+    <sheet name="02 03 2017" sheetId="5" r:id="rId5"/>
+    <sheet name="03 03 2017" sheetId="6" r:id="rId6"/>
+    <sheet name="06 03 2017" sheetId="7" r:id="rId7"/>
+    <sheet name="07 03 2017" sheetId="8" r:id="rId8"/>
+    <sheet name="08 03 2017" sheetId="9" r:id="rId9"/>
+    <sheet name="09 03 2017" sheetId="10" r:id="rId10"/>
+    <sheet name="10 03 2017" sheetId="11" r:id="rId11"/>
+    <sheet name="13 03 2017" sheetId="12" r:id="rId12"/>
+    <sheet name="14 03 2017" sheetId="13" r:id="rId13"/>
+    <sheet name="15 03 2017" sheetId="14" r:id="rId14"/>
+    <sheet name="16 03 2017" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -36,76 +40,76 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="71">
   <si>
-    <t xml:space="preserve">Critère</t>
+    <t>Critère</t>
   </si>
   <si>
-    <t xml:space="preserve">Pondération</t>
+    <t>Pondération</t>
   </si>
   <si>
-    <t xml:space="preserve">Score</t>
+    <t>Score</t>
   </si>
   <si>
-    <t xml:space="preserve">Result</t>
+    <t>Result</t>
   </si>
   <si>
-    <t xml:space="preserve">Final Score</t>
+    <t>Final Score</t>
   </si>
   <si>
-    <t xml:space="preserve">Information</t>
+    <t>Information</t>
   </si>
   <si>
-    <t xml:space="preserve">les moteurs de l'A400M-Airbus déclarer fiable</t>
+    <t>les moteurs de l'A400M-Airbus déclarer fiable</t>
   </si>
   <si>
-    <t xml:space="preserve">Graphique</t>
+    <t>Graphique</t>
   </si>
   <si>
-    <t xml:space="preserve">11h30</t>
+    <t>11h30</t>
   </si>
   <si>
-    <t xml:space="preserve">Finance</t>
+    <t>Finance</t>
   </si>
   <si>
-    <t xml:space="preserve">Hasard</t>
+    <t>Hasard</t>
   </si>
   <si>
-    <t xml:space="preserve">Indicateur graphique</t>
+    <t>Indicateur graphique</t>
   </si>
   <si>
-    <t xml:space="preserve">Reason</t>
+    <t>Reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Bollinger</t>
+    <t>Bollinger</t>
   </si>
   <si>
-    <t xml:space="preserve">Achat ou vente possible ( Léger Resserrement des bandes ,les changements de prix majeurs sont attendu)</t>
+    <t>Achat ou vente possible ( Léger Resserrement des bandes ,les changements de prix majeurs sont attendu)</t>
   </si>
   <si>
-    <t xml:space="preserve">Stochastique</t>
+    <t>Stochastique</t>
   </si>
   <si>
-    <t xml:space="preserve">Positionnement à l'achat conseillé (le stochastique %K coupe à la hausse sa ligne du %D)</t>
+    <t>Positionnement à l'achat conseillé (le stochastique %K coupe à la hausse sa ligne du %D)</t>
   </si>
   <si>
-    <t xml:space="preserve">Moyennes mobiles</t>
+    <t>Moyennes mobiles</t>
   </si>
   <si>
-    <t xml:space="preserve">Les volumes échangés sont supérieurs à la moyenne des volumes sur les jours précédents</t>
+    <t>Les volumes échangés sont supérieurs à la moyenne des volumes sur les jours précédents</t>
   </si>
   <si>
-    <t xml:space="preserve">MACD</t>
+    <t>MACD</t>
   </si>
   <si>
-    <t xml:space="preserve">Positionnement à l'achat conseillé (Traversée de la MACD à la hausse de la ligne du signal)</t>
+    <t>Positionnement à l'achat conseillé (Traversée de la MACD à la hausse de la ligne du signal)</t>
   </si>
   <si>
-    <t xml:space="preserve">RSI</t>
+    <t>RSI</t>
   </si>
   <si>
-    <t xml:space="preserve">Vente conseillé(RSI en dessous du seuil des 30)</t>
+    <t>Vente conseillé(RSI en dessous du seuil des 30)</t>
   </si>
   <si>
-    <t xml:space="preserve">Indicateur finance</t>
+    <t>Indicateur finance</t>
   </si>
   <si>
     <r>
@@ -113,19 +117,19 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
+        <family val="1"/>
       </rPr>
-      <t xml:space="preserve">S</t>
+      <t>S</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">core</t>
+      <t>core</t>
     </r>
   </si>
   <si>
@@ -134,116 +138,116 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
+        <family val="1"/>
       </rPr>
-      <t xml:space="preserve">R</t>
+      <t>R</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">eason</t>
+      <t>eason</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">BNA</t>
+    <t>BNA</t>
   </si>
   <si>
-    <t xml:space="preserve">Augmentation moyenne de l'indicateur par rapport à l'année précedente</t>
+    <t>Augmentation moyenne de l'indicateur par rapport à l'année précedente</t>
   </si>
   <si>
-    <t xml:space="preserve">PER</t>
+    <t>PER</t>
   </si>
   <si>
-    <t xml:space="preserve">Diminution net de l'indicateur par rapport à  l'année précédente</t>
+    <t>Diminution net de l'indicateur par rapport à  l'année précédente</t>
   </si>
   <si>
-    <t xml:space="preserve">Dividende</t>
+    <t>Dividende</t>
   </si>
   <si>
-    <t xml:space="preserve">Rendement</t>
+    <t>Rendement</t>
   </si>
   <si>
-    <t xml:space="preserve">CA</t>
+    <t>CA</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiffre d'affaire constant</t>
+    <t>Chiffre d'affaire constant</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">Airbus va se battre sur deux fronts pour renflouer l'A400M</t>
+    <t>Airbus va se battre sur deux fronts pour renflouer l'A400M</t>
   </si>
   <si>
-    <t xml:space="preserve">11h00</t>
+    <t>11h00</t>
   </si>
   <si>
-    <t xml:space="preserve">Achat possible (Fort Resserrement des bandes ,les changements de prix majeurs sont attendu)</t>
+    <t>Achat possible (Fort Resserrement des bandes ,les changements de prix majeurs sont attendu)</t>
   </si>
   <si>
-    <t xml:space="preserve">Achat possible (RSI proche du seuil des 70 donc alerte attendu)</t>
+    <t>Achat possible (RSI proche du seuil des 70 donc alerte attendu)</t>
   </si>
   <si>
-    <t xml:space="preserve">Airbus: nomination dans la division Commercial Aircraft</t>
+    <t>Airbus: nomination dans la division Commercial Aircraft</t>
   </si>
   <si>
-    <t xml:space="preserve">16h00</t>
+    <t>16h00</t>
   </si>
   <si>
-    <t xml:space="preserve">Hausse de la bourse de Paris suite au discours de Trump de 2,10% à 4.960,83 points</t>
+    <t>Hausse de la bourse de Paris suite au discours de Trump de 2,10% à 4.960,83 points</t>
   </si>
   <si>
-    <t xml:space="preserve">14h00</t>
+    <t>14h00</t>
   </si>
   <si>
-    <t xml:space="preserve">Positionnement à la vente  conseillé (Traversée légère de la MACD à la basse de la ligne du signal)</t>
+    <t>Positionnement à la vente  conseillé (Traversée légère de la MACD à la basse de la ligne du signal)</t>
   </si>
   <si>
-    <t xml:space="preserve">Raison</t>
+    <t>Raison</t>
   </si>
   <si>
-    <t xml:space="preserve">Agenda économique</t>
+    <t>Agenda économique</t>
   </si>
   <si>
-    <t xml:space="preserve">Positionnement à la vente conseillé (le stochastique %K coupe à la basse sa ligne du %D)</t>
+    <t>Positionnement à la vente conseillé (le stochastique %K coupe à la basse sa ligne du %D)</t>
   </si>
   <si>
-    <t xml:space="preserve">Bourse de Paris en recul en début de semaine (-0,35%)</t>
+    <t>Bourse de Paris en recul en début de semaine (-0,35%)</t>
   </si>
   <si>
-    <t xml:space="preserve">13h00</t>
+    <t>13h00</t>
   </si>
   <si>
-    <t xml:space="preserve">Pas de changement majeur des prix donc aucune conclusion possible (Ecartement des banbes de Boulingers)</t>
+    <t>Pas de changement majeur des prix donc aucune conclusion possible (Ecartement des banbes de Boulingers)</t>
   </si>
   <si>
-    <t xml:space="preserve">Pas de conclusion possible(%K égale à %D)</t>
+    <t>Pas de conclusion possible(%K égale à %D)</t>
   </si>
   <si>
-    <t xml:space="preserve">Airbus: revient en appui sur les 70E</t>
+    <t>Airbus: revient en appui sur les 70E</t>
   </si>
   <si>
-    <t xml:space="preserve">17h00</t>
+    <t>17h00</t>
   </si>
   <si>
-    <t xml:space="preserve">Airbus: annonce le lancement d'EDRS-D</t>
+    <t>Airbus: annonce le lancement d'EDRS-D</t>
   </si>
   <si>
-    <t xml:space="preserve">12h30</t>
+    <t>12h30</t>
   </si>
   <si>
-    <t xml:space="preserve">Airbus: annonce le lancement d'EDRS-D, signature d'un partenariat avec Routehappy.</t>
+    <t>Airbus: annonce le lancement d'EDRS-D, signature d'un partenariat avec Routehappy.</t>
   </si>
   <si>
-    <t xml:space="preserve">Les volumes échangés sont égal à la moyenne des volumes sur les jours précédents</t>
+    <t>Les volumes échangés sont égal à la moyenne des volumes sur les jours précédents</t>
   </si>
   <si>
-    <t xml:space="preserve">Aucune conclusion possible (RSI en dessous du seuil des 70 donc pas d'alerte)</t>
+    <t>Aucune conclusion possible (RSI en dessous du seuil des 70 donc pas d'alerte)</t>
   </si>
   <si>
     <r>
@@ -251,22 +255,22 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
+        <family val="1"/>
       </rPr>
-      <t xml:space="preserve">17h</t>
+      <t>17h</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">00</t>
+      <t>00</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Aucune conclusion possible(MACD égale au signal)</t>
+    <t>Aucune conclusion possible(MACD égale au signal)</t>
   </si>
   <si>
     <r>
@@ -274,22 +278,22 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
+        <family val="1"/>
       </rPr>
-      <t xml:space="preserve">1</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">6h00</t>
+      <t>6h00</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Bourse de Paris en hausse en début de semaine (+0,13%) et après WallStreet (+0,32%)</t>
+    <t>Bourse de Paris en hausse en début de semaine (+0,13%) et après WallStreet (+0,32%)</t>
   </si>
   <si>
     <r>
@@ -297,153 +301,153 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
+        <family val="1"/>
       </rPr>
-      <t xml:space="preserve">1</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">7h00</t>
+      <t>7h00</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Positionnement à la vente conseillé (Traversée de la MACD à la basse de la ligne du signal)</t>
+    <t>Positionnement à la vente conseillé (Traversée de la MACD à la basse de la ligne du signal)</t>
   </si>
   <si>
-    <t xml:space="preserve">Achat possible (RSI égale à 70 donc alerte attendu)</t>
+    <t>Achat possible (RSI égale à 70 donc alerte attendu)</t>
   </si>
   <si>
-    <t xml:space="preserve">Signature d'un partenariat dans le domaine de la cyber sécurité avec SPIE et poursuite de croissance pour le missilier européen MBDA</t>
+    <t>Signature d'un partenariat dans le domaine de la cyber sécurité avec SPIE et poursuite de croissance pour le missilier européen MBDA</t>
   </si>
   <si>
-    <t xml:space="preserve">12h40</t>
+    <t>12h40</t>
   </si>
   <si>
-    <t xml:space="preserve">Positionnement à la vente conseillé (Traversée légère de la MACD à la basse de la ligne du signal)</t>
+    <t>Positionnement à la vente conseillé (Traversée légère de la MACD à la basse de la ligne du signal)</t>
   </si>
   <si>
-    <t xml:space="preserve">Note(de -1 à 1)</t>
+    <t>Note(de -1 à 1)</t>
   </si>
   <si>
-    <t xml:space="preserve">Final note</t>
+    <t>Final note</t>
   </si>
   <si>
-    <t xml:space="preserve">12h5</t>
+    <r>
+      <t>12h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
-  </numFmts>
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <u val="single"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="0"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
-      <family val="0"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
-      <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF003883"/>
       <name val="Roboto"/>
-      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -467,14 +471,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -490,129 +494,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="10">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Result" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Result2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading1" xfId="23" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="解释性文本" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -671,36 +597,342 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="109.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="18" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="19.17"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="109.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="17" width="7.42578125" customWidth="1"/>
+    <col min="18" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,27 +970,27 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>0.38</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>0.5</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <f aca="false">B2*C2</f>
+      <c r="D2" s="5">
+        <f>B2*C2</f>
         <v>0.19</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUM(D2:D5)</f>
-        <v>0.3396</v>
+      <c r="G2" s="5">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.4909</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -780,20 +1012,20 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f aca="false">SUM(D11:D15)</f>
-        <v>0.32</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <f aca="false">B3*C3</f>
-        <v>0.072</v>
+      <c r="B3" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="5">
+        <f>SUM(D11:D15)</f>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>7.2000000000000022E-2</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -820,20 +1052,20 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f aca="false">SUM(D20:D24)</f>
+      <c r="B4" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <f>SUM(D20:D24)</f>
         <v>0.36</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <f aca="false">B4*C4</f>
-        <v>0.081</v>
+      <c r="D4" s="5">
+        <f>B4*C4</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -858,20 +1090,20 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>0.17</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <f aca="false">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.02</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <f aca="false">B5*C5</f>
-        <v>-0.0034</v>
+      <c r="C5" s="5">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.87</v>
+      </c>
+      <c r="D5" s="5">
+        <f ca="1">B5*C5</f>
+        <v>0.1479</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -896,7 +1128,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -924,7 +1156,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -952,7 +1184,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -980,7 +1212,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1008,7 +1240,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1046,19 +1278,19 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="7" t="n">
+      <c r="B11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="7">
         <v>0.1</v>
       </c>
-      <c r="D11" s="5" t="n">
-        <f aca="false">B11*C11</f>
-        <v>0.02</v>
+      <c r="D11" s="5">
+        <f>B11*C11</f>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -1085,19 +1317,19 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="7" t="n">
+      <c r="B12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="7">
         <v>0.8</v>
       </c>
-      <c r="D12" s="5" t="n">
-        <f aca="false">B12*C12</f>
-        <v>0.16</v>
+      <c r="D12" s="5">
+        <f>B12*C12</f>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
@@ -1124,19 +1356,19 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="7" t="n">
+      <c r="B13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="7">
         <v>0.7</v>
       </c>
-      <c r="D13" s="5" t="n">
-        <f aca="false">B13*C13</f>
-        <v>0.14</v>
+      <c r="D13" s="5">
+        <f>B13*C13</f>
+        <v>0.13999999999999999</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -1163,19 +1395,19 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="7" t="n">
+      <c r="B14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="7">
         <v>0.8</v>
       </c>
-      <c r="D14" s="5" t="n">
-        <f aca="false">B14*C14</f>
-        <v>0.16</v>
+      <c r="D14" s="5">
+        <f>B14*C14</f>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>20</v>
@@ -1202,19 +1434,19 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="7" t="n">
+      <c r="B15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="7">
         <v>-0.8</v>
       </c>
-      <c r="D15" s="5" t="n">
-        <f aca="false">B15*C15</f>
-        <v>-0.16</v>
+      <c r="D15" s="5">
+        <f>B15*C15</f>
+        <v>-0.16000000000000003</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>22</v>
@@ -1241,7 +1473,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1269,7 +1501,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1297,7 +1529,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1325,7 +1557,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1363,19 +1595,19 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="16.5" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="9" t="n">
+      <c r="B20" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
         <v>0.88</v>
       </c>
-      <c r="D20" s="5" t="n">
-        <f aca="false">B20*C20</f>
-        <v>0.176</v>
+      <c r="D20" s="5">
+        <f>B20*C20</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>27</v>
@@ -1402,19 +1634,19 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="16.5" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="9" t="n">
+      <c r="B21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="9">
         <v>-0.72</v>
       </c>
-      <c r="D21" s="5" t="n">
-        <f aca="false">B21*C21</f>
-        <v>-0.144</v>
+      <c r="D21" s="5">
+        <f>B21*C21</f>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>29</v>
@@ -1441,19 +1673,19 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="16.5" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="9" t="n">
+      <c r="B22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="9">
         <v>0.72</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <f aca="false">B22*C22</f>
-        <v>0.144</v>
+      <c r="D22" s="5">
+        <f>B22*C22</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>27</v>
@@ -1480,19 +1712,19 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="16.5" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="9" t="n">
+      <c r="B23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="9">
         <v>0.72</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <f aca="false">B23*C23</f>
-        <v>0.144</v>
+      <c r="D23" s="5">
+        <f>B23*C23</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>27</v>
@@ -1519,19 +1751,19 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="16.5" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <f aca="false">B24*C24</f>
-        <v>0.04</v>
+      <c r="B24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="5">
+        <f>B24*C24</f>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>33</v>
@@ -1558,7 +1790,7 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:26">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1586,7 +1818,7 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:26">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1614,7 +1846,7 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:26">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1645,41 +1877,32 @@
       <c r="Z27" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="114.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="18" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="19.17"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="114.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="17" width="7.42578125" customWidth="1"/>
+    <col min="18" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1717,27 +1940,27 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>0.38</v>
       </c>
-      <c r="C2" s="6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <f aca="false">B2*C2</f>
-        <v>0.076</v>
+      <c r="C2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="5">
+        <f>B2*C2</f>
+        <v>7.6000000000000012E-2</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUM(D2:D5)</f>
-        <v>0.3796</v>
+      <c r="G2" s="5">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.36940000000000006</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -1759,20 +1982,20 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f aca="false">SUM(D11:D15)</f>
+      <c r="B3" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="5">
+        <f>SUM(D11:D15)</f>
         <v>0.4</v>
       </c>
-      <c r="D3" s="5" t="n">
-        <f aca="false">B3*C3</f>
-        <v>0.09</v>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -1799,20 +2022,20 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f aca="false">SUM(D20:D24)</f>
+      <c r="B4" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <f>SUM(D20:D24)</f>
         <v>0.36</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <f aca="false">B4*C4</f>
-        <v>0.081</v>
+      <c r="D4" s="5">
+        <f>B4*C4</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1837,20 +2060,20 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>0.17</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <f aca="false">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.78</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <f aca="false">B5*C5</f>
-        <v>0.1326</v>
+      <c r="C5" s="5">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.72</v>
+      </c>
+      <c r="D5" s="5">
+        <f ca="1">B5*C5</f>
+        <v>0.12240000000000001</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1875,7 +2098,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1903,7 +2126,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1931,7 +2154,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1959,7 +2182,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1987,7 +2210,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2025,18 +2248,18 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="7" t="n">
+      <c r="B11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="5" t="n">
-        <f aca="false">B11*C11</f>
+      <c r="D11" s="5">
+        <f>B11*C11</f>
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -2064,18 +2287,18 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="7" t="n">
+      <c r="B12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="5" t="n">
-        <f aca="false">B12*C12</f>
+      <c r="D12" s="5">
+        <f>B12*C12</f>
         <v>0.2</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -2103,18 +2326,18 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="7" t="n">
+      <c r="B13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="5" t="n">
-        <f aca="false">B13*C13</f>
+      <c r="D13" s="5">
+        <f>B13*C13</f>
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -2142,18 +2365,18 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="7" t="n">
+      <c r="B14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="5" t="n">
-        <f aca="false">B14*C14</f>
+      <c r="D14" s="5">
+        <f>B14*C14</f>
         <v>0.2</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -2181,18 +2404,18 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="7" t="n">
+      <c r="B15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="7">
         <v>0</v>
       </c>
-      <c r="D15" s="5" t="n">
-        <f aca="false">B15*C15</f>
+      <c r="D15" s="5">
+        <f>B15*C15</f>
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -2220,7 +2443,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2248,7 +2471,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2276,7 +2499,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2304,7 +2527,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -2342,19 +2565,19 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="16.5" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="9" t="n">
+      <c r="B20" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
         <v>0.88</v>
       </c>
-      <c r="D20" s="5" t="n">
-        <f aca="false">B20*C20</f>
-        <v>0.176</v>
+      <c r="D20" s="5">
+        <f>B20*C20</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>27</v>
@@ -2381,19 +2604,19 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="16.5" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="9" t="n">
+      <c r="B21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="9">
         <v>-0.72</v>
       </c>
-      <c r="D21" s="5" t="n">
-        <f aca="false">B21*C21</f>
-        <v>-0.144</v>
+      <c r="D21" s="5">
+        <f>B21*C21</f>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>29</v>
@@ -2420,19 +2643,19 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="16.5" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="9" t="n">
+      <c r="B22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="9">
         <v>0.72</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <f aca="false">B22*C22</f>
-        <v>0.144</v>
+      <c r="D22" s="5">
+        <f>B22*C22</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>27</v>
@@ -2459,19 +2682,19 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="16.5" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="9" t="n">
+      <c r="B23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="9">
         <v>0.72</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <f aca="false">B23*C23</f>
-        <v>0.144</v>
+      <c r="D23" s="5">
+        <f>B23*C23</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>27</v>
@@ -2498,19 +2721,19 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="16.5" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <f aca="false">B24*C24</f>
-        <v>0.04</v>
+      <c r="B24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="5">
+        <f>B24*C24</f>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>33</v>
@@ -2537,43 +2760,34 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="15" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="110.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="18" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="19.17"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="110.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="17" width="9.85546875" customWidth="1"/>
+    <col min="18" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2611,27 +2825,27 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>0.38</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <f aca="false">B2*C2</f>
+      <c r="D2" s="5">
+        <f>B2*C2</f>
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUM(D2:D5)</f>
-        <v>0.036</v>
+      <c r="G2" s="5">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.28080000000000005</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -2653,20 +2867,20 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f aca="false">SUM(D11:D15)</f>
-        <v>0.14</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <f aca="false">B3*C3</f>
-        <v>0.0315</v>
+      <c r="B3" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="5">
+        <f>SUM(D11:D15)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>3.1500000000000007E-2</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -2693,20 +2907,20 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f aca="false">SUM(D20:D24)</f>
+      <c r="B4" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <f>SUM(D20:D24)</f>
         <v>0.36</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <f aca="false">B4*C4</f>
-        <v>0.081</v>
+      <c r="D4" s="5">
+        <f>B4*C4</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2731,20 +2945,20 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>0.17</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <f aca="false">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.45</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <f aca="false">B5*C5</f>
-        <v>-0.0765</v>
+      <c r="C5" s="5">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.99</v>
+      </c>
+      <c r="D5" s="5">
+        <f ca="1">B5*C5</f>
+        <v>0.16830000000000001</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2769,7 +2983,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2797,7 +3011,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2825,7 +3039,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2853,7 +3067,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2881,7 +3095,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2919,19 +3133,19 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <f aca="false">B11*C11</f>
-        <v>0.04</v>
+      <c r="B11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="5">
+        <f>B11*C11</f>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -2958,18 +3172,18 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="6" t="n">
+      <c r="B12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="6">
         <v>-0.6</v>
       </c>
-      <c r="D12" s="5" t="n">
-        <f aca="false">B12*C12</f>
+      <c r="D12" s="5">
+        <f>B12*C12</f>
         <v>-0.12</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -2997,19 +3211,19 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="6" t="n">
+      <c r="B13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="6">
         <v>0.4</v>
       </c>
-      <c r="D13" s="5" t="n">
-        <f aca="false">B13*C13</f>
-        <v>0.08</v>
+      <c r="D13" s="5">
+        <f>B13*C13</f>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -3036,18 +3250,18 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="6" t="n">
+      <c r="B14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="6">
         <v>0</v>
       </c>
-      <c r="D14" s="5" t="n">
-        <f aca="false">B14*C14</f>
+      <c r="D14" s="5">
+        <f>B14*C14</f>
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -3075,19 +3289,19 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="6" t="n">
+      <c r="B15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="6">
         <v>0.7</v>
       </c>
-      <c r="D15" s="5" t="n">
-        <f aca="false">B15*C15</f>
-        <v>0.14</v>
+      <c r="D15" s="5">
+        <f>B15*C15</f>
+        <v>0.13999999999999999</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>38</v>
@@ -3114,7 +3328,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -3142,7 +3356,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -3170,7 +3384,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -3198,7 +3412,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -3236,19 +3450,19 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="16.5" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="9" t="n">
+      <c r="B20" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
         <v>0.88</v>
       </c>
-      <c r="D20" s="5" t="n">
-        <f aca="false">B20*C20</f>
-        <v>0.176</v>
+      <c r="D20" s="5">
+        <f>B20*C20</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>27</v>
@@ -3275,19 +3489,19 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="16.5" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="9" t="n">
+      <c r="B21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="9">
         <v>-0.72</v>
       </c>
-      <c r="D21" s="5" t="n">
-        <f aca="false">B21*C21</f>
-        <v>-0.144</v>
+      <c r="D21" s="5">
+        <f>B21*C21</f>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>29</v>
@@ -3314,19 +3528,19 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="16.5" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="9" t="n">
+      <c r="B22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="9">
         <v>0.72</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <f aca="false">B22*C22</f>
-        <v>0.144</v>
+      <c r="D22" s="5">
+        <f>B22*C22</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>27</v>
@@ -3353,19 +3567,19 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="16.5" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="9" t="n">
+      <c r="B23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="9">
         <v>0.72</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <f aca="false">B23*C23</f>
-        <v>0.144</v>
+      <c r="D23" s="5">
+        <f>B23*C23</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>27</v>
@@ -3392,19 +3606,19 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="16.5" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <f aca="false">B24*C24</f>
-        <v>0.04</v>
+      <c r="B24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="5">
+        <f>B24*C24</f>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>33</v>
@@ -3431,43 +3645,34 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="15" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="112.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="18" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="19.17"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="112.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="17" width="9.85546875" customWidth="1"/>
+    <col min="18" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3505,28 +3710,28 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>0.38</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>0.1</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <f aca="false">B2*C2</f>
-        <v>0.038</v>
+      <c r="D2" s="5">
+        <f>B2*C2</f>
+        <v>3.8000000000000006E-2</v>
       </c>
       <c r="E2" s="11" t="str">
-        <f aca="false">HYPERLINK("http://www.boursorama.com/actualites/la-bourse-de-paris-opte-pour-la-prudence-au-debut-d-une-semaine-chargee-0-01-656fea345af375c12c9a95813f8f499b","La Bourse de Paris opte pour la prudence au début d'une semaine chargée (-0,01%)")</f>
+        <f>HYPERLINK("http://www.boursorama.com/actualites/la-bourse-de-paris-opte-pour-la-prudence-au-debut-d-une-semaine-chargee-0-01-656fea345af375c12c9a95813f8f499b","La Bourse de Paris opte pour la prudence au début d'une semaine chargée (-0,01%)")</f>
         <v>La Bourse de Paris opte pour la prudence au début d'une semaine chargée (-0,01%)</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUM(D2:D5)</f>
-        <v>0.1159</v>
+      <c r="G2" s="5">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>-3.0999999999999917E-3</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -3548,20 +3753,20 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f aca="false">SUM(D11:D15)</f>
-        <v>0.16</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <f aca="false">B3*C3</f>
-        <v>0.036</v>
+      <c r="B3" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="5">
+        <f>SUM(D11:D15)</f>
+        <v>0.15999999999999998</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -3588,20 +3793,20 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f aca="false">SUM(D20:D24)</f>
+      <c r="B4" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <f>SUM(D20:D24)</f>
         <v>0.36</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <f aca="false">B4*C4</f>
-        <v>0.081</v>
+      <c r="D4" s="5">
+        <f>B4*C4</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -3626,20 +3831,20 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>0.17</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <f aca="false">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.23</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <f aca="false">B5*C5</f>
-        <v>-0.0391</v>
+      <c r="C5" s="5">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>-0.93</v>
+      </c>
+      <c r="D5" s="5">
+        <f ca="1">B5*C5</f>
+        <v>-0.15810000000000002</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3664,7 +3869,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3692,7 +3897,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -3720,7 +3925,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3748,7 +3953,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3776,7 +3981,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -3814,19 +4019,19 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="6" t="n">
+      <c r="B11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="6">
         <v>0.1</v>
       </c>
-      <c r="D11" s="5" t="n">
-        <f aca="false">B11*C11</f>
-        <v>0.02</v>
+      <c r="D11" s="5">
+        <f>B11*C11</f>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -3853,18 +4058,18 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="6" t="n">
+      <c r="B12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="6">
         <v>-0.5</v>
       </c>
-      <c r="D12" s="5" t="n">
-        <f aca="false">B12*C12</f>
+      <c r="D12" s="5">
+        <f>B12*C12</f>
         <v>-0.1</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3892,18 +4097,18 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="6" t="n">
+      <c r="B13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="6">
         <v>0.5</v>
       </c>
-      <c r="D13" s="5" t="n">
-        <f aca="false">B13*C13</f>
+      <c r="D13" s="5">
+        <f>B13*C13</f>
         <v>0.1</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -3931,18 +4136,18 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="6" t="n">
+      <c r="B14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="6">
         <v>0</v>
       </c>
-      <c r="D14" s="5" t="n">
-        <f aca="false">B14*C14</f>
+      <c r="D14" s="5">
+        <f>B14*C14</f>
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -3970,19 +4175,19 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="6" t="n">
+      <c r="B15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="6">
         <v>0.7</v>
       </c>
-      <c r="D15" s="5" t="n">
-        <f aca="false">B15*C15</f>
-        <v>0.14</v>
+      <c r="D15" s="5">
+        <f>B15*C15</f>
+        <v>0.13999999999999999</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>38</v>
@@ -4009,7 +4214,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -4037,7 +4242,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4065,7 +4270,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4093,7 +4298,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -4131,19 +4336,19 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="16.5" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="9" t="n">
+      <c r="B20" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
         <v>0.88</v>
       </c>
-      <c r="D20" s="5" t="n">
-        <f aca="false">B20*C20</f>
-        <v>0.176</v>
+      <c r="D20" s="5">
+        <f>B20*C20</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>27</v>
@@ -4170,19 +4375,19 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="16.5" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="9" t="n">
+      <c r="B21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="9">
         <v>-0.72</v>
       </c>
-      <c r="D21" s="5" t="n">
-        <f aca="false">B21*C21</f>
-        <v>-0.144</v>
+      <c r="D21" s="5">
+        <f>B21*C21</f>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>29</v>
@@ -4209,19 +4414,19 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="16.5" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="9" t="n">
+      <c r="B22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="9">
         <v>0.72</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <f aca="false">B22*C22</f>
-        <v>0.144</v>
+      <c r="D22" s="5">
+        <f>B22*C22</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>27</v>
@@ -4248,19 +4453,19 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="16.5" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="9" t="n">
+      <c r="B23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="9">
         <v>0.72</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <f aca="false">B23*C23</f>
-        <v>0.144</v>
+      <c r="D23" s="5">
+        <f>B23*C23</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>27</v>
@@ -4287,19 +4492,19 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="16.5" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <f aca="false">B24*C24</f>
-        <v>0.04</v>
+      <c r="B24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="5">
+        <f>B24*C24</f>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>33</v>
@@ -4326,43 +4531,34 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="15" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="109.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="18" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="19.17"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="109.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="17" width="9.85546875" customWidth="1"/>
+    <col min="18" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4400,27 +4596,27 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>0.38</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>0.8</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <f aca="false">B2*C2</f>
-        <v>0.304</v>
+      <c r="D2" s="5">
+        <f>B2*C2</f>
+        <v>0.30400000000000005</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUM(D2:D5)</f>
-        <v>0.5575</v>
+      <c r="G2" s="5">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.26</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -4442,20 +4638,20 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f aca="false">SUM(D11:D15)</f>
-        <v>0.2</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <f aca="false">B3*C3</f>
-        <v>0.045</v>
+      <c r="B3" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="5">
+        <f>SUM(D11:D15)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>4.5000000000000005E-2</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -4482,20 +4678,20 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f aca="false">SUM(D20:D24)</f>
+      <c r="B4" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <f>SUM(D20:D24)</f>
         <v>0.36</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <f aca="false">B4*C4</f>
-        <v>0.081</v>
+      <c r="D4" s="5">
+        <f>B4*C4</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -4520,20 +4716,20 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>0.17</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <f aca="false">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.75</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <f aca="false">B5*C5</f>
-        <v>0.1275</v>
+      <c r="C5" s="5">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>-1</v>
+      </c>
+      <c r="D5" s="5">
+        <f ca="1">B5*C5</f>
+        <v>-0.17</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4558,7 +4754,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -4586,7 +4782,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -4614,7 +4810,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -4642,7 +4838,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4670,7 +4866,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -4708,19 +4904,19 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="6" t="n">
+      <c r="B11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="6">
         <v>0.1</v>
       </c>
-      <c r="D11" s="5" t="n">
-        <f aca="false">B11*C11</f>
-        <v>0.02</v>
+      <c r="D11" s="5">
+        <f>B11*C11</f>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -4747,18 +4943,18 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="6" t="n">
+      <c r="B12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="6">
         <v>-0.5</v>
       </c>
-      <c r="D12" s="5" t="n">
-        <f aca="false">B12*C12</f>
+      <c r="D12" s="5">
+        <f>B12*C12</f>
         <v>-0.1</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -4786,19 +4982,19 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="6" t="n">
+      <c r="B13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="6">
         <v>0.7</v>
       </c>
-      <c r="D13" s="5" t="n">
-        <f aca="false">B13*C13</f>
-        <v>0.14</v>
+      <c r="D13" s="5">
+        <f>B13*C13</f>
+        <v>0.13999999999999999</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -4825,19 +5021,19 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="6" t="n">
+      <c r="B14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="6">
         <v>-0.1</v>
       </c>
-      <c r="D14" s="5" t="n">
-        <f aca="false">B14*C14</f>
-        <v>-0.02</v>
+      <c r="D14" s="5">
+        <f>B14*C14</f>
+        <v>-2.0000000000000004E-2</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>63</v>
@@ -4864,19 +5060,19 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="6" t="n">
+      <c r="B15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="6">
         <v>0.8</v>
       </c>
-      <c r="D15" s="5" t="n">
-        <f aca="false">B15*C15</f>
-        <v>0.16</v>
+      <c r="D15" s="5">
+        <f>B15*C15</f>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>64</v>
@@ -4903,7 +5099,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -4931,7 +5127,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4959,7 +5155,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4987,7 +5183,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -5025,19 +5221,19 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="16.5" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="9" t="n">
+      <c r="B20" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
         <v>0.88</v>
       </c>
-      <c r="D20" s="5" t="n">
-        <f aca="false">B20*C20</f>
-        <v>0.176</v>
+      <c r="D20" s="5">
+        <f>B20*C20</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>27</v>
@@ -5064,19 +5260,19 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="16.5" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="9" t="n">
+      <c r="B21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="9">
         <v>-0.72</v>
       </c>
-      <c r="D21" s="5" t="n">
-        <f aca="false">B21*C21</f>
-        <v>-0.144</v>
+      <c r="D21" s="5">
+        <f>B21*C21</f>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>29</v>
@@ -5103,19 +5299,19 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="16.5" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="9" t="n">
+      <c r="B22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="9">
         <v>0.72</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <f aca="false">B22*C22</f>
-        <v>0.144</v>
+      <c r="D22" s="5">
+        <f>B22*C22</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>27</v>
@@ -5142,19 +5338,19 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="16.5" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="9" t="n">
+      <c r="B23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="9">
         <v>0.72</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <f aca="false">B23*C23</f>
-        <v>0.144</v>
+      <c r="D23" s="5">
+        <f>B23*C23</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>27</v>
@@ -5181,19 +5377,19 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="16.5" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <f aca="false">B24*C24</f>
-        <v>0.04</v>
+      <c r="B24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="5">
+        <f>B24*C24</f>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>33</v>
@@ -5220,43 +5416,34 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="15" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="141.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="18" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="19.17"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="141" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="17" width="9.85546875" customWidth="1"/>
+    <col min="18" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5294,27 +5481,27 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>0.38</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>0.7</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <f aca="false">B2*C2</f>
-        <v>0.266</v>
+      <c r="D2" s="5">
+        <f>B2*C2</f>
+        <v>0.26599999999999996</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>65</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUM(D2:D5)</f>
-        <v>0.4481</v>
+      <c r="G2" s="5">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.53139999999999998</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -5336,20 +5523,20 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f aca="false">SUM(D11:D15)</f>
-        <v>0.2</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <f aca="false">B3*C3</f>
-        <v>0.045</v>
+      <c r="B3" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="5">
+        <f>SUM(D11:D15)</f>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>4.5000000000000019E-2</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -5376,20 +5563,20 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f aca="false">SUM(D20:D24)</f>
+      <c r="B4" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <f>SUM(D20:D24)</f>
         <v>0.36</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <f aca="false">B4*C4</f>
-        <v>0.081</v>
+      <c r="D4" s="5">
+        <f>B4*C4</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -5414,20 +5601,20 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>0.17</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <f aca="false">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.33</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <f aca="false">B5*C5</f>
-        <v>0.0561</v>
+      <c r="C5" s="5">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.82</v>
+      </c>
+      <c r="D5" s="5">
+        <f ca="1">B5*C5</f>
+        <v>0.1394</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -5452,7 +5639,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -5480,7 +5667,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -5508,7 +5695,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -5536,7 +5723,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -5564,7 +5751,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -5602,19 +5789,19 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <f aca="false">B11*C11</f>
-        <v>0.04</v>
+      <c r="B11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="5">
+        <f>B11*C11</f>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -5641,19 +5828,19 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="6" t="n">
+      <c r="B12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="6">
         <v>-0.7</v>
       </c>
-      <c r="D12" s="5" t="n">
-        <f aca="false">B12*C12</f>
-        <v>-0.14</v>
+      <c r="D12" s="5">
+        <f>B12*C12</f>
+        <v>-0.13999999999999999</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>46</v>
@@ -5680,19 +5867,19 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="6" t="n">
+      <c r="B13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="6">
         <v>0.8</v>
       </c>
-      <c r="D13" s="5" t="n">
-        <f aca="false">B13*C13</f>
-        <v>0.16</v>
+      <c r="D13" s="5">
+        <f>B13*C13</f>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -5719,19 +5906,19 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="6" t="n">
+      <c r="B14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="6">
         <v>-0.2</v>
       </c>
-      <c r="D14" s="5" t="n">
-        <f aca="false">B14*C14</f>
-        <v>-0.04</v>
+      <c r="D14" s="5">
+        <f>B14*C14</f>
+        <v>-4.0000000000000008E-2</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>67</v>
@@ -5758,19 +5945,19 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="6" t="n">
+      <c r="B15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="6">
         <v>0.9</v>
       </c>
-      <c r="D15" s="5" t="n">
-        <f aca="false">B15*C15</f>
-        <v>0.18</v>
+      <c r="D15" s="5">
+        <f>B15*C15</f>
+        <v>0.18000000000000002</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>64</v>
@@ -5797,7 +5984,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -5825,7 +6012,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -5853,7 +6040,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -5881,7 +6068,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -5919,19 +6106,19 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="16.5" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="9" t="n">
+      <c r="B20" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
         <v>0.88</v>
       </c>
-      <c r="D20" s="5" t="n">
-        <f aca="false">B20*C20</f>
-        <v>0.176</v>
+      <c r="D20" s="5">
+        <f>B20*C20</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>27</v>
@@ -5958,19 +6145,19 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="16.5" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="9" t="n">
+      <c r="B21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="9">
         <v>-0.72</v>
       </c>
-      <c r="D21" s="5" t="n">
-        <f aca="false">B21*C21</f>
-        <v>-0.144</v>
+      <c r="D21" s="5">
+        <f>B21*C21</f>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>29</v>
@@ -5997,19 +6184,19 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="16.5" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="9" t="n">
+      <c r="B22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="9">
         <v>0.72</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <f aca="false">B22*C22</f>
-        <v>0.144</v>
+      <c r="D22" s="5">
+        <f>B22*C22</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>27</v>
@@ -6036,19 +6223,19 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="16.5" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="9" t="n">
+      <c r="B23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="9">
         <v>0.72</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <f aca="false">B23*C23</f>
-        <v>0.144</v>
+      <c r="D23" s="5">
+        <f>B23*C23</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>27</v>
@@ -6075,19 +6262,19 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="16.5" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <f aca="false">B24*C24</f>
-        <v>0.04</v>
+      <c r="B24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="5">
+        <f>B24*C24</f>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>33</v>
@@ -6114,43 +6301,36 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="15" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="94.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="8.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="18" style="0" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="19.17"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="94.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="17" width="8.7109375" customWidth="1"/>
+    <col min="18" max="26" width="16.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6190,27 +6370,27 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>0.38</v>
       </c>
-      <c r="C2" s="16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <f aca="false">B2*C2</f>
-        <v>0.076</v>
+      <c r="C2" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="5">
+        <f>B2*C2</f>
+        <v>7.6000000000000012E-2</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUM(D2:D5)</f>
-        <v>0.094</v>
+      <c r="G2" s="5">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.27929999999999999</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -6232,24 +6412,24 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f aca="false">SUM(D11:D15)</f>
+      <c r="B3" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="5">
+        <f>SUM(D11:D15)</f>
         <v>0.26</v>
       </c>
-      <c r="D3" s="5" t="n">
-        <f aca="false">B3*C3</f>
-        <v>0.0585</v>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H3" s="5"/>
@@ -6272,19 +6452,19 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f aca="false">SUM(D20:D24)</f>
+      <c r="B4" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <f>SUM(D20:D24)</f>
         <v>0.5</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <f aca="false">B4*C4</f>
+      <c r="D4" s="5">
+        <f>B4*C4</f>
         <v>0.1125</v>
       </c>
       <c r="E4" s="5"/>
@@ -6310,20 +6490,20 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>0.17</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <f aca="false">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.9</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <f aca="false">B5*C5</f>
-        <v>-0.153</v>
+      <c r="C5" s="5">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.19</v>
+      </c>
+      <c r="D5" s="5">
+        <f ca="1">B5*C5</f>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -6348,7 +6528,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -6376,7 +6556,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -6404,7 +6584,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -6432,7 +6612,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -6460,7 +6640,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -6498,19 +6678,19 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="16" t="n">
+      <c r="B11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="16">
         <v>0.7</v>
       </c>
-      <c r="D11" s="5" t="n">
-        <f aca="false">B11*C11</f>
-        <v>0.14</v>
+      <c r="D11" s="5">
+        <f>B11*C11</f>
+        <v>0.13999999999999999</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>37</v>
@@ -6537,18 +6717,18 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="16" t="n">
+      <c r="B12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="16">
         <v>-0.6</v>
       </c>
-      <c r="D12" s="5" t="n">
-        <f aca="false">B12*C12</f>
+      <c r="D12" s="5">
+        <f>B12*C12</f>
         <v>-0.12</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -6576,19 +6756,19 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="16" t="n">
+      <c r="B13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="16">
         <v>0.9</v>
       </c>
-      <c r="D13" s="5" t="n">
-        <f aca="false">B13*C13</f>
-        <v>0.18</v>
+      <c r="D13" s="5">
+        <f>B13*C13</f>
+        <v>0.18000000000000002</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -6615,18 +6795,18 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="16" t="n">
+      <c r="B14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="16">
         <v>-0.3</v>
       </c>
-      <c r="D14" s="5" t="n">
-        <f aca="false">B14*C14</f>
+      <c r="D14" s="5">
+        <f>B14*C14</f>
         <v>-0.06</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -6654,18 +6834,18 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="16" t="n">
+      <c r="B15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="16">
         <v>0.6</v>
       </c>
-      <c r="D15" s="5" t="n">
-        <f aca="false">B15*C15</f>
+      <c r="D15" s="5">
+        <f>B15*C15</f>
         <v>0.12</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -6693,7 +6873,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -6721,7 +6901,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -6749,7 +6929,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -6777,7 +6957,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -6815,18 +6995,18 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="5" t="n">
+      <c r="B20" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="5">
         <v>1</v>
       </c>
-      <c r="D20" s="5" t="n">
-        <f aca="false">B20*C20</f>
+      <c r="D20" s="5">
+        <f>B20*C20</f>
         <v>0.2</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -6854,18 +7034,18 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="5" t="n">
+      <c r="B21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="5">
         <v>-0.5</v>
       </c>
-      <c r="D21" s="5" t="n">
-        <f aca="false">B21*C21</f>
+      <c r="D21" s="5">
+        <f>B21*C21</f>
         <v>-0.1</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -6893,18 +7073,18 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="5" t="n">
+      <c r="B22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="5">
         <v>0.5</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <f aca="false">B22*C22</f>
+      <c r="D22" s="5">
+        <f>B22*C22</f>
         <v>0.1</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -6932,18 +7112,18 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="5" t="n">
+      <c r="B23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="5">
         <v>0.5</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <f aca="false">B23*C23</f>
+      <c r="D23" s="5">
+        <f>B23*C23</f>
         <v>0.1</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -6971,18 +7151,18 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="5" t="n">
+      <c r="B24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="5">
         <v>1</v>
       </c>
-      <c r="D24" s="5" t="n">
-        <f aca="false">B24*C24</f>
+      <c r="D24" s="5">
+        <f>B24*C24</f>
         <v>0.2</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -7011,41 +7191,32 @@
       <c r="Z24" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="98.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="18" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="19.17"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="98.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="17" width="7.42578125" customWidth="1"/>
+    <col min="18" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7083,27 +7254,27 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>0.38</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>0.5</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <f aca="false">B2*C2</f>
+      <c r="D2" s="5">
+        <f>B2*C2</f>
         <v>0.19</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUM(D2:D5)</f>
-        <v>0.4168</v>
+      <c r="G2" s="5">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.4899</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -7125,20 +7296,20 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f aca="false">SUM(D11:D15)</f>
-        <v>0.58</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <f aca="false">B3*C3</f>
-        <v>0.1305</v>
+      <c r="B3" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="5">
+        <f>SUM(D11:D15)</f>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>0.13050000000000003</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -7165,20 +7336,20 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f aca="false">SUM(D20:D24)</f>
+      <c r="B4" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <f>SUM(D20:D24)</f>
         <v>0.36</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <f aca="false">B4*C4</f>
-        <v>0.081</v>
+      <c r="D4" s="5">
+        <f>B4*C4</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -7203,20 +7374,20 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>0.17</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <f aca="false">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.09</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <f aca="false">B5*C5</f>
-        <v>0.0153</v>
+      <c r="C5" s="5">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.52</v>
+      </c>
+      <c r="D5" s="5">
+        <f ca="1">B5*C5</f>
+        <v>8.8400000000000006E-2</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -7241,7 +7412,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -7269,7 +7440,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -7297,7 +7468,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -7325,7 +7496,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -7353,7 +7524,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -7391,19 +7562,19 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="7" t="n">
+      <c r="B11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="7">
         <v>0.7</v>
       </c>
-      <c r="D11" s="5" t="n">
-        <f aca="false">B11*C11</f>
-        <v>0.14</v>
+      <c r="D11" s="5">
+        <f>B11*C11</f>
+        <v>0.13999999999999999</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>37</v>
@@ -7430,19 +7601,19 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="7" t="n">
+      <c r="B12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="7">
         <v>0.8</v>
       </c>
-      <c r="D12" s="5" t="n">
-        <f aca="false">B12*C12</f>
-        <v>0.16</v>
+      <c r="D12" s="5">
+        <f>B12*C12</f>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
@@ -7469,18 +7640,18 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="7" t="n">
+      <c r="B13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="7">
         <v>0.3</v>
       </c>
-      <c r="D13" s="5" t="n">
-        <f aca="false">B13*C13</f>
+      <c r="D13" s="5">
+        <f>B13*C13</f>
         <v>0.06</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -7508,19 +7679,19 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="7" t="n">
+      <c r="B14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="7">
         <v>0.7</v>
       </c>
-      <c r="D14" s="5" t="n">
-        <f aca="false">B14*C14</f>
-        <v>0.14</v>
+      <c r="D14" s="5">
+        <f>B14*C14</f>
+        <v>0.13999999999999999</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>20</v>
@@ -7547,19 +7718,19 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="7" t="n">
+      <c r="B15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="7">
         <v>0.4</v>
       </c>
-      <c r="D15" s="5" t="n">
-        <f aca="false">B15*C15</f>
-        <v>0.08</v>
+      <c r="D15" s="5">
+        <f>B15*C15</f>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>38</v>
@@ -7586,7 +7757,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -7614,7 +7785,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7642,7 +7813,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7670,7 +7841,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -7708,19 +7879,19 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="16.5" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="9" t="n">
+      <c r="B20" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
         <v>0.88</v>
       </c>
-      <c r="D20" s="5" t="n">
-        <f aca="false">B20*C20</f>
-        <v>0.176</v>
+      <c r="D20" s="5">
+        <f>B20*C20</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>27</v>
@@ -7747,19 +7918,19 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="16.5" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="9" t="n">
+      <c r="B21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="9">
         <v>-0.72</v>
       </c>
-      <c r="D21" s="5" t="n">
-        <f aca="false">B21*C21</f>
-        <v>-0.144</v>
+      <c r="D21" s="5">
+        <f>B21*C21</f>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>29</v>
@@ -7786,19 +7957,19 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="16.5" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="9" t="n">
+      <c r="B22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="9">
         <v>0.72</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <f aca="false">B22*C22</f>
-        <v>0.144</v>
+      <c r="D22" s="5">
+        <f>B22*C22</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>27</v>
@@ -7825,19 +7996,19 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="16.5" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="9" t="n">
+      <c r="B23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="9">
         <v>0.72</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <f aca="false">B23*C23</f>
-        <v>0.144</v>
+      <c r="D23" s="5">
+        <f>B23*C23</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>27</v>
@@ -7864,19 +8035,19 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="16.5" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <f aca="false">B24*C24</f>
-        <v>0.04</v>
+      <c r="B24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="5">
+        <f>B24*C24</f>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>33</v>
@@ -7903,43 +8074,34 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="15" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="109.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="18" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="19.17"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="109.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="17" width="7.42578125" customWidth="1"/>
+    <col min="18" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7977,27 +8139,27 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>0.38</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>0.6</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <f aca="false">B2*C2</f>
-        <v>0.228</v>
+      <c r="D2" s="5">
+        <f>B2*C2</f>
+        <v>0.22799999999999998</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUM(D2:D5)</f>
-        <v>0.3353</v>
+      <c r="G2" s="5">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.42369999999999997</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -8019,20 +8181,20 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f aca="false">SUM(D11:D15)</f>
+      <c r="B3" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="5">
+        <f>SUM(D11:D15)</f>
         <v>0.54</v>
       </c>
-      <c r="D3" s="5" t="n">
-        <f aca="false">B3*C3</f>
-        <v>0.1215</v>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>0.12150000000000001</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -8059,20 +8221,20 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f aca="false">SUM(D20:D24)</f>
+      <c r="B4" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <f>SUM(D20:D24)</f>
         <v>0.36</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <f aca="false">B4*C4</f>
-        <v>0.081</v>
+      <c r="D4" s="5">
+        <f>B4*C4</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -8097,20 +8259,20 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>0.17</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <f aca="false">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.56</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <f aca="false">B5*C5</f>
-        <v>-0.0952</v>
+      <c r="C5" s="5">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>-0.04</v>
+      </c>
+      <c r="D5" s="5">
+        <f ca="1">B5*C5</f>
+        <v>-6.8000000000000005E-3</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -8135,7 +8297,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -8163,7 +8325,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -8191,7 +8353,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -8219,7 +8381,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -8247,7 +8409,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -8285,19 +8447,19 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="7" t="n">
+      <c r="B11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="7">
         <v>0.1</v>
       </c>
-      <c r="D11" s="5" t="n">
-        <f aca="false">B11*C11</f>
-        <v>0.02</v>
+      <c r="D11" s="5">
+        <f>B11*C11</f>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -8324,19 +8486,19 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="7" t="n">
+      <c r="B12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="7">
         <v>0.7</v>
       </c>
-      <c r="D12" s="5" t="n">
-        <f aca="false">B12*C12</f>
-        <v>0.14</v>
+      <c r="D12" s="5">
+        <f>B12*C12</f>
+        <v>0.13999999999999999</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
@@ -8363,19 +8525,19 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="7" t="n">
+      <c r="B13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="7">
         <v>0.4</v>
       </c>
-      <c r="D13" s="5" t="n">
-        <f aca="false">B13*C13</f>
-        <v>0.08</v>
+      <c r="D13" s="5">
+        <f>B13*C13</f>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -8402,19 +8564,19 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="7" t="n">
+      <c r="B14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="7">
         <v>0.7</v>
       </c>
-      <c r="D14" s="5" t="n">
-        <f aca="false">B14*C14</f>
-        <v>0.14</v>
+      <c r="D14" s="5">
+        <f>B14*C14</f>
+        <v>0.13999999999999999</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>20</v>
@@ -8441,19 +8603,19 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="7" t="n">
+      <c r="B15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="7">
         <v>0.8</v>
       </c>
-      <c r="D15" s="5" t="n">
-        <f aca="false">B15*C15</f>
-        <v>0.16</v>
+      <c r="D15" s="5">
+        <f>B15*C15</f>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>38</v>
@@ -8480,7 +8642,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -8508,7 +8670,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -8536,7 +8698,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -8564,7 +8726,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -8602,19 +8764,19 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="16.5" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="9" t="n">
+      <c r="B20" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
         <v>0.88</v>
       </c>
-      <c r="D20" s="5" t="n">
-        <f aca="false">B20*C20</f>
-        <v>0.176</v>
+      <c r="D20" s="5">
+        <f>B20*C20</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>27</v>
@@ -8641,19 +8803,19 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="16.5" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="9" t="n">
+      <c r="B21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="9">
         <v>-0.72</v>
       </c>
-      <c r="D21" s="5" t="n">
-        <f aca="false">B21*C21</f>
-        <v>-0.144</v>
+      <c r="D21" s="5">
+        <f>B21*C21</f>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>29</v>
@@ -8680,19 +8842,19 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="16.5" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="9" t="n">
+      <c r="B22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="9">
         <v>0.72</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <f aca="false">B22*C22</f>
-        <v>0.144</v>
+      <c r="D22" s="5">
+        <f>B22*C22</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>27</v>
@@ -8719,19 +8881,19 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="16.5" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="9" t="n">
+      <c r="B23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="9">
         <v>0.72</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <f aca="false">B23*C23</f>
-        <v>0.144</v>
+      <c r="D23" s="5">
+        <f>B23*C23</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>27</v>
@@ -8758,19 +8920,19 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="16.5" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <f aca="false">B24*C24</f>
-        <v>0.04</v>
+      <c r="B24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="5">
+        <f>B24*C24</f>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>33</v>
@@ -8797,43 +8959,34 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="15" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="109.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="18" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="19.17"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="109.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="17" width="7.42578125" customWidth="1"/>
+    <col min="18" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8871,27 +9024,27 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>0.38</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>0.6</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <f aca="false">B2*C2</f>
-        <v>0.228</v>
+      <c r="D2" s="5">
+        <f>B2*C2</f>
+        <v>0.22799999999999998</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUM(D2:D5)</f>
-        <v>0.4376</v>
+      <c r="G2" s="5">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.51070000000000004</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -8913,20 +9066,20 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f aca="false">SUM(D11:D15)</f>
-        <v>0.36</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <f aca="false">B3*C3</f>
-        <v>0.081</v>
+      <c r="B3" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="5">
+        <f>SUM(D11:D15)</f>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>8.1000000000000016E-2</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -8953,20 +9106,20 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f aca="false">SUM(D20:D24)</f>
+      <c r="B4" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <f>SUM(D20:D24)</f>
         <v>0.36</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <f aca="false">B4*C4</f>
-        <v>0.081</v>
+      <c r="D4" s="5">
+        <f>B4*C4</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -8991,20 +9144,20 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>0.17</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <f aca="false">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.28</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <f aca="false">B5*C5</f>
-        <v>0.0476</v>
+      <c r="C5" s="5">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.71</v>
+      </c>
+      <c r="D5" s="5">
+        <f ca="1">B5*C5</f>
+        <v>0.1207</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -9029,7 +9182,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -9057,7 +9210,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -9085,7 +9238,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -9113,7 +9266,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -9141,7 +9294,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -9179,19 +9332,19 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="7" t="n">
+      <c r="B11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="7">
         <v>0.1</v>
       </c>
-      <c r="D11" s="5" t="n">
-        <f aca="false">B11*C11</f>
-        <v>0.02</v>
+      <c r="D11" s="5">
+        <f>B11*C11</f>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -9218,18 +9371,18 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="7" t="n">
+      <c r="B12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="7">
         <v>0.6</v>
       </c>
-      <c r="D12" s="5" t="n">
-        <f aca="false">B12*C12</f>
+      <c r="D12" s="5">
+        <f>B12*C12</f>
         <v>0.12</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -9257,18 +9410,18 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="7" t="n">
+      <c r="B13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="7">
         <v>0.5</v>
       </c>
-      <c r="D13" s="5" t="n">
-        <f aca="false">B13*C13</f>
+      <c r="D13" s="5">
+        <f>B13*C13</f>
         <v>0.1</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -9296,19 +9449,19 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="7" t="n">
+      <c r="B14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="7">
         <v>-0.2</v>
       </c>
-      <c r="D14" s="5" t="n">
-        <f aca="false">B14*C14</f>
-        <v>-0.04</v>
+      <c r="D14" s="5">
+        <f>B14*C14</f>
+        <v>-4.0000000000000008E-2</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>43</v>
@@ -9335,19 +9488,19 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="7" t="n">
+      <c r="B15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="7">
         <v>0.8</v>
       </c>
-      <c r="D15" s="5" t="n">
-        <f aca="false">B15*C15</f>
-        <v>0.16</v>
+      <c r="D15" s="5">
+        <f>B15*C15</f>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>38</v>
@@ -9374,7 +9527,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -9402,7 +9555,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -9430,7 +9583,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -9458,7 +9611,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -9496,19 +9649,19 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="16.5" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="9" t="n">
+      <c r="B20" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
         <v>0.88</v>
       </c>
-      <c r="D20" s="5" t="n">
-        <f aca="false">B20*C20</f>
-        <v>0.176</v>
+      <c r="D20" s="5">
+        <f>B20*C20</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>27</v>
@@ -9535,19 +9688,19 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="16.5" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="9" t="n">
+      <c r="B21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="9">
         <v>-0.72</v>
       </c>
-      <c r="D21" s="5" t="n">
-        <f aca="false">B21*C21</f>
-        <v>-0.144</v>
+      <c r="D21" s="5">
+        <f>B21*C21</f>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>29</v>
@@ -9574,19 +9727,19 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="16.5" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="9" t="n">
+      <c r="B22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="9">
         <v>0.72</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <f aca="false">B22*C22</f>
-        <v>0.144</v>
+      <c r="D22" s="5">
+        <f>B22*C22</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>27</v>
@@ -9613,19 +9766,19 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="16.5" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="9" t="n">
+      <c r="B23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="9">
         <v>0.72</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <f aca="false">B23*C23</f>
-        <v>0.144</v>
+      <c r="D23" s="5">
+        <f>B23*C23</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>27</v>
@@ -9652,19 +9805,19 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="16.5" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <f aca="false">B24*C24</f>
-        <v>0.04</v>
+      <c r="B24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="5">
+        <f>B24*C24</f>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>33</v>
@@ -9691,43 +9844,34 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="15" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="96.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="18" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="19.17"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="96.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="17" width="7.42578125" customWidth="1"/>
+    <col min="18" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9767,27 +9911,27 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>0.38</v>
       </c>
-      <c r="C2" s="6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <f aca="false">B2*C2</f>
-        <v>0.076</v>
+      <c r="C2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="5">
+        <f>B2*C2</f>
+        <v>7.6000000000000012E-2</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUM(D2:D5)</f>
-        <v>0.1142</v>
+      <c r="G2" s="5">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.1431</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -9809,20 +9953,20 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f aca="false">SUM(D11:D15)</f>
+      <c r="B3" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="5">
+        <f>SUM(D11:D15)</f>
         <v>0.52</v>
       </c>
-      <c r="D3" s="5" t="n">
-        <f aca="false">B3*C3</f>
-        <v>0.117</v>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>0.11700000000000001</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -9849,20 +9993,20 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f aca="false">SUM(D20:D24)</f>
+      <c r="B4" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <f>SUM(D20:D24)</f>
         <v>0.36</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <f aca="false">B4*C4</f>
-        <v>0.081</v>
+      <c r="D4" s="5">
+        <f>B4*C4</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -9887,20 +10031,20 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>0.17</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <f aca="false">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.94</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <f aca="false">B5*C5</f>
-        <v>-0.1598</v>
+      <c r="C5" s="5">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>-0.77</v>
+      </c>
+      <c r="D5" s="5">
+        <f ca="1">B5*C5</f>
+        <v>-0.13090000000000002</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -9925,7 +10069,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -9953,7 +10097,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -9981,7 +10125,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -10009,7 +10153,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -10037,7 +10181,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -10075,19 +10219,19 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="7" t="n">
+      <c r="B11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="7">
         <v>0.4</v>
       </c>
-      <c r="D11" s="5" t="n">
-        <f aca="false">B11*C11</f>
-        <v>0.08</v>
+      <c r="D11" s="5">
+        <f>B11*C11</f>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>37</v>
@@ -10114,18 +10258,18 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="7" t="n">
+      <c r="B12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="7">
         <v>0.6</v>
       </c>
-      <c r="D12" s="5" t="n">
-        <f aca="false">B12*C12</f>
+      <c r="D12" s="5">
+        <f>B12*C12</f>
         <v>0.12</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -10153,18 +10297,18 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="7" t="n">
+      <c r="B13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="7">
         <v>0.6</v>
       </c>
-      <c r="D13" s="5" t="n">
-        <f aca="false">B13*C13</f>
+      <c r="D13" s="5">
+        <f>B13*C13</f>
         <v>0.12</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -10192,19 +10336,19 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="7" t="n">
+      <c r="B14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="7">
         <v>0.4</v>
       </c>
-      <c r="D14" s="5" t="n">
-        <f aca="false">B14*C14</f>
-        <v>0.08</v>
+      <c r="D14" s="5">
+        <f>B14*C14</f>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>20</v>
@@ -10231,18 +10375,18 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="7" t="n">
+      <c r="B15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="7">
         <v>0.6</v>
       </c>
-      <c r="D15" s="5" t="n">
-        <f aca="false">B15*C15</f>
+      <c r="D15" s="5">
+        <f>B15*C15</f>
         <v>0.12</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -10270,7 +10414,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -10298,7 +10442,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10326,7 +10470,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -10354,7 +10498,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -10392,19 +10536,19 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="16.5" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="9" t="n">
+      <c r="B20" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
         <v>0.88</v>
       </c>
-      <c r="D20" s="5" t="n">
-        <f aca="false">B20*C20</f>
-        <v>0.176</v>
+      <c r="D20" s="5">
+        <f>B20*C20</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>27</v>
@@ -10431,19 +10575,19 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="16.5" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="9" t="n">
+      <c r="B21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="9">
         <v>-0.72</v>
       </c>
-      <c r="D21" s="5" t="n">
-        <f aca="false">B21*C21</f>
-        <v>-0.144</v>
+      <c r="D21" s="5">
+        <f>B21*C21</f>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>29</v>
@@ -10470,19 +10614,19 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="16.5" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="9" t="n">
+      <c r="B22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="9">
         <v>0.72</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <f aca="false">B22*C22</f>
-        <v>0.144</v>
+      <c r="D22" s="5">
+        <f>B22*C22</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>27</v>
@@ -10509,19 +10653,19 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="16.5" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="9" t="n">
+      <c r="B23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="9">
         <v>0.72</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <f aca="false">B23*C23</f>
-        <v>0.144</v>
+      <c r="D23" s="5">
+        <f>B23*C23</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>27</v>
@@ -10548,19 +10692,19 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="16.5" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <f aca="false">B24*C24</f>
-        <v>0.04</v>
+      <c r="B24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="5">
+        <f>B24*C24</f>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>33</v>
@@ -10587,43 +10731,34 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="15" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="98.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="18" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="19.17"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="99" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="17" width="7.42578125" customWidth="1"/>
+    <col min="18" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10661,28 +10796,28 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>0.38</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>0.4</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <f aca="false">B2*C2</f>
-        <v>0.152</v>
+      <c r="D2" s="5">
+        <f>B2*C2</f>
+        <v>0.15200000000000002</v>
       </c>
       <c r="E2" s="11" t="str">
-        <f aca="false">HYPERLINK("http://www.boursorama.com/actualites/le-h160-d-airbus-helicopters-servira-de-base-au-hil-547d181cd99c1ec3d55143b4aeeceab3","Le H160 d'Airbus Helicopters servira de base au HIL")</f>
+        <f>HYPERLINK("http://www.boursorama.com/actualites/le-h160-d-airbus-helicopters-servira-de-base-au-hil-547d181cd99c1ec3d55143b4aeeceab3","Le H160 d'Airbus Helicopters servira de base au HIL")</f>
         <v>Le H160 d'Airbus Helicopters servira de base au HIL</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUM(D2:D5)</f>
-        <v>0.1245</v>
+      <c r="G2" s="5">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.2452</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -10704,20 +10839,20 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f aca="false">SUM(D11:D15)</f>
-        <v>0.16</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <f aca="false">B3*C3</f>
-        <v>0.036</v>
+      <c r="B3" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="5">
+        <f>SUM(D11:D15)</f>
+        <v>0.16000000000000006</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>3.6000000000000011E-2</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -10744,20 +10879,20 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f aca="false">SUM(D20:D24)</f>
+      <c r="B4" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <f>SUM(D20:D24)</f>
         <v>0.36</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <f aca="false">B4*C4</f>
-        <v>0.081</v>
+      <c r="D4" s="5">
+        <f>B4*C4</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -10782,20 +10917,20 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>0.17</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <f aca="false">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.85</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <f aca="false">B5*C5</f>
-        <v>-0.1445</v>
+      <c r="C5" s="5">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="D5" s="5">
+        <f ca="1">B5*C5</f>
+        <v>-2.3800000000000005E-2</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -10820,7 +10955,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -10848,7 +10983,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -10876,7 +11011,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -10904,7 +11039,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -10932,7 +11067,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -10970,19 +11105,19 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="7" t="n">
+      <c r="B11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="7">
         <v>0.4</v>
       </c>
-      <c r="D11" s="5" t="n">
-        <f aca="false">B11*C11</f>
-        <v>0.08</v>
+      <c r="D11" s="5">
+        <f>B11*C11</f>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>37</v>
@@ -11009,19 +11144,19 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="7" t="n">
+      <c r="B12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="7">
         <v>-0.2</v>
       </c>
-      <c r="D12" s="5" t="n">
-        <f aca="false">B12*C12</f>
-        <v>-0.04</v>
+      <c r="D12" s="5">
+        <f>B12*C12</f>
+        <v>-4.0000000000000008E-2</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>46</v>
@@ -11048,18 +11183,18 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="7" t="n">
+      <c r="B13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="7">
         <v>0.5</v>
       </c>
-      <c r="D13" s="5" t="n">
-        <f aca="false">B13*C13</f>
+      <c r="D13" s="5">
+        <f>B13*C13</f>
         <v>0.1</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -11087,19 +11222,19 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="7" t="n">
+      <c r="B14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="7">
         <v>0.8</v>
       </c>
-      <c r="D14" s="5" t="n">
-        <f aca="false">B14*C14</f>
-        <v>0.16</v>
+      <c r="D14" s="5">
+        <f>B14*C14</f>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>20</v>
@@ -11126,19 +11261,19 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="7" t="n">
+      <c r="B15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="7">
         <v>-0.7</v>
       </c>
-      <c r="D15" s="5" t="n">
-        <f aca="false">B15*C15</f>
-        <v>-0.14</v>
+      <c r="D15" s="5">
+        <f>B15*C15</f>
+        <v>-0.13999999999999999</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>22</v>
@@ -11165,7 +11300,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -11193,7 +11328,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -11221,7 +11356,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -11249,7 +11384,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -11287,19 +11422,19 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="16.5" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="9" t="n">
+      <c r="B20" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
         <v>0.88</v>
       </c>
-      <c r="D20" s="5" t="n">
-        <f aca="false">B20*C20</f>
-        <v>0.176</v>
+      <c r="D20" s="5">
+        <f>B20*C20</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>27</v>
@@ -11326,19 +11461,19 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="16.5" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="9" t="n">
+      <c r="B21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="9">
         <v>-0.72</v>
       </c>
-      <c r="D21" s="5" t="n">
-        <f aca="false">B21*C21</f>
-        <v>-0.144</v>
+      <c r="D21" s="5">
+        <f>B21*C21</f>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>29</v>
@@ -11365,19 +11500,19 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="16.5" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="9" t="n">
+      <c r="B22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="9">
         <v>0.72</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <f aca="false">B22*C22</f>
-        <v>0.144</v>
+      <c r="D22" s="5">
+        <f>B22*C22</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>27</v>
@@ -11404,19 +11539,19 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="16.5" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="9" t="n">
+      <c r="B23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="9">
         <v>0.72</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <f aca="false">B23*C23</f>
-        <v>0.144</v>
+      <c r="D23" s="5">
+        <f>B23*C23</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>27</v>
@@ -11443,19 +11578,19 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="16.5" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <f aca="false">B24*C24</f>
-        <v>0.04</v>
+      <c r="B24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="5">
+        <f>B24*C24</f>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>33</v>
@@ -11482,44 +11617,35 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="15" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="101.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="20" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="19.17"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="101.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="17" width="7.42578125" customWidth="1"/>
+    <col min="18" max="19" width="16.28515625" customWidth="1"/>
+    <col min="20" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11557,27 +11683,27 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>0.38</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <f aca="false">B2*C2</f>
+      <c r="D2" s="5">
+        <f>B2*C2</f>
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUM(D2:D5)</f>
-        <v>0.02535</v>
+      <c r="G2" s="5">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.13075000000000001</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -11599,20 +11725,20 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f aca="false">SUM(D11:D15)</f>
-        <v>0.41</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <f aca="false">B3*C3</f>
-        <v>0.09225</v>
+      <c r="B3" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="5">
+        <f>SUM(D11:D15)</f>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>9.2250000000000013E-2</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -11639,20 +11765,20 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f aca="false">SUM(D20:D24)</f>
+      <c r="B4" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <f>SUM(D20:D24)</f>
         <v>0.36</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <f aca="false">B4*C4</f>
-        <v>0.081</v>
+      <c r="D4" s="5">
+        <f>B4*C4</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -11677,20 +11803,20 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>0.17</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <f aca="false">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.87</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <f aca="false">B5*C5</f>
-        <v>-0.1479</v>
+      <c r="C5" s="5">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>-0.25</v>
+      </c>
+      <c r="D5" s="5">
+        <f ca="1">B5*C5</f>
+        <v>-4.2500000000000003E-2</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -11715,7 +11841,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -11743,7 +11869,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -11771,7 +11897,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -11799,7 +11925,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -11827,7 +11953,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -11865,18 +11991,18 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="7" t="n">
+      <c r="B11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="5" t="n">
-        <f aca="false">B11*C11</f>
+      <c r="D11" s="5">
+        <f>B11*C11</f>
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -11904,19 +12030,19 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="7" t="n">
+      <c r="B12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="7">
         <v>0.1</v>
       </c>
-      <c r="D12" s="5" t="n">
-        <f aca="false">B12*C12</f>
-        <v>0.02</v>
+      <c r="D12" s="5">
+        <f>B12*C12</f>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>50</v>
@@ -11943,18 +12069,18 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="7" t="n">
+      <c r="B13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="7">
         <v>0.5</v>
       </c>
-      <c r="D13" s="5" t="n">
-        <f aca="false">B13*C13</f>
+      <c r="D13" s="5">
+        <f>B13*C13</f>
         <v>0.1</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -11982,19 +12108,19 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="7" t="n">
+      <c r="B14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="7">
         <v>0.75</v>
       </c>
-      <c r="D14" s="5" t="n">
-        <f aca="false">B14*C14</f>
-        <v>0.15</v>
+      <c r="D14" s="5">
+        <f>B14*C14</f>
+        <v>0.15000000000000002</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>20</v>
@@ -12021,19 +12147,19 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="7" t="n">
+      <c r="B15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="7">
         <v>0.7</v>
       </c>
-      <c r="D15" s="5" t="n">
-        <f aca="false">B15*C15</f>
-        <v>0.14</v>
+      <c r="D15" s="5">
+        <f>B15*C15</f>
+        <v>0.13999999999999999</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>38</v>
@@ -12062,7 +12188,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -12090,7 +12216,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -12118,7 +12244,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -12146,7 +12272,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -12184,19 +12310,19 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="16.5" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="9" t="n">
+      <c r="B20" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
         <v>0.88</v>
       </c>
-      <c r="D20" s="5" t="n">
-        <f aca="false">B20*C20</f>
-        <v>0.176</v>
+      <c r="D20" s="5">
+        <f>B20*C20</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>27</v>
@@ -12223,19 +12349,19 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="16.5" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="9" t="n">
+      <c r="B21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="9">
         <v>-0.72</v>
       </c>
-      <c r="D21" s="5" t="n">
-        <f aca="false">B21*C21</f>
-        <v>-0.144</v>
+      <c r="D21" s="5">
+        <f>B21*C21</f>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>29</v>
@@ -12262,19 +12388,19 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="16.5" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="9" t="n">
+      <c r="B22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="9">
         <v>0.72</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <f aca="false">B22*C22</f>
-        <v>0.144</v>
+      <c r="D22" s="5">
+        <f>B22*C22</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>27</v>
@@ -12301,19 +12427,19 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="16.5" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="9" t="n">
+      <c r="B23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="9">
         <v>0.72</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <f aca="false">B23*C23</f>
-        <v>0.144</v>
+      <c r="D23" s="5">
+        <f>B23*C23</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>27</v>
@@ -12340,19 +12466,19 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="16.5" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <f aca="false">B24*C24</f>
-        <v>0.04</v>
+      <c r="B24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="5">
+        <f>B24*C24</f>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>33</v>
@@ -12379,43 +12505,34 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="15" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="113.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="18" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="19.17"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="113.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="17" width="7.42578125" customWidth="1"/>
+    <col min="18" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12453,27 +12570,27 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>0.38</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>0.5</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <f aca="false">B2*C2</f>
+      <c r="D2" s="5">
+        <f>B2*C2</f>
         <v>0.19</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUM(D2:D5)</f>
-        <v>0.4931</v>
+      <c r="G2" s="5">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.34690000000000004</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -12495,20 +12612,20 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f aca="false">SUM(D11:D15)</f>
-        <v>0.36</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <f aca="false">B3*C3</f>
-        <v>0.081</v>
+      <c r="B3" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="5">
+        <f>SUM(D11:D15)</f>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>8.1000000000000016E-2</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -12535,20 +12652,20 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f aca="false">SUM(D20:D24)</f>
+      <c r="B4" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <f>SUM(D20:D24)</f>
         <v>0.36</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <f aca="false">B4*C4</f>
-        <v>0.081</v>
+      <c r="D4" s="5">
+        <f>B4*C4</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -12573,20 +12690,20 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>0.17</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <f aca="false">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.83</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <f aca="false">B5*C5</f>
-        <v>0.1411</v>
+      <c r="C5" s="5">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>-0.03</v>
+      </c>
+      <c r="D5" s="5">
+        <f ca="1">B5*C5</f>
+        <v>-5.1000000000000004E-3</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -12611,7 +12728,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -12639,7 +12756,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -12667,7 +12784,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -12695,7 +12812,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -12723,7 +12840,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -12761,18 +12878,18 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="7" t="n">
+      <c r="B11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="5" t="n">
-        <f aca="false">B11*C11</f>
+      <c r="D11" s="5">
+        <f>B11*C11</f>
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -12800,19 +12917,19 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="7" t="n">
+      <c r="B12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="7">
         <v>-0.1</v>
       </c>
-      <c r="D12" s="5" t="n">
-        <f aca="false">B12*C12</f>
-        <v>-0.02</v>
+      <c r="D12" s="5">
+        <f>B12*C12</f>
+        <v>-2.0000000000000004E-2</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>46</v>
@@ -12839,18 +12956,18 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="7" t="n">
+      <c r="B13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="7">
         <v>0.5</v>
       </c>
-      <c r="D13" s="5" t="n">
-        <f aca="false">B13*C13</f>
+      <c r="D13" s="5">
+        <f>B13*C13</f>
         <v>0.1</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -12878,19 +12995,19 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="7" t="n">
+      <c r="B14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="7">
         <v>0.8</v>
       </c>
-      <c r="D14" s="5" t="n">
-        <f aca="false">B14*C14</f>
-        <v>0.16</v>
+      <c r="D14" s="5">
+        <f>B14*C14</f>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>20</v>
@@ -12917,18 +13034,18 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="7" t="n">
+      <c r="B15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="7">
         <v>0.6</v>
       </c>
-      <c r="D15" s="5" t="n">
-        <f aca="false">B15*C15</f>
+      <c r="D15" s="5">
+        <f>B15*C15</f>
         <v>0.12</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -12956,7 +13073,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -12984,7 +13101,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -13012,7 +13129,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -13040,7 +13157,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -13078,19 +13195,19 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="16.5" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="9" t="n">
+      <c r="B20" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
         <v>0.88</v>
       </c>
-      <c r="D20" s="5" t="n">
-        <f aca="false">B20*C20</f>
-        <v>0.176</v>
+      <c r="D20" s="5">
+        <f>B20*C20</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>27</v>
@@ -13117,19 +13234,19 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="16.5" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="9" t="n">
+      <c r="B21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="9">
         <v>-0.72</v>
       </c>
-      <c r="D21" s="5" t="n">
-        <f aca="false">B21*C21</f>
-        <v>-0.144</v>
+      <c r="D21" s="5">
+        <f>B21*C21</f>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>29</v>
@@ -13156,19 +13273,19 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="16.5" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="9" t="n">
+      <c r="B22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="9">
         <v>0.72</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <f aca="false">B22*C22</f>
-        <v>0.144</v>
+      <c r="D22" s="5">
+        <f>B22*C22</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>27</v>
@@ -13195,19 +13312,19 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="16.5" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="9" t="n">
+      <c r="B23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="9">
         <v>0.72</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <f aca="false">B23*C23</f>
-        <v>0.144</v>
+      <c r="D23" s="5">
+        <f>B23*C23</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>27</v>
@@ -13234,19 +13351,19 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="16.5" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <f aca="false">B24*C24</f>
-        <v>0.04</v>
+      <c r="B24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="5">
+        <f>B24*C24</f>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>33</v>
@@ -13273,43 +13390,34 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="15" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="115.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="18" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="19.17"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="115.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="17" width="7.42578125" customWidth="1"/>
+    <col min="18" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13347,27 +13455,27 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>0.38</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <f aca="false">B2*C2</f>
+      <c r="D2" s="5">
+        <f>B2*C2</f>
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUM(D2:D5)</f>
-        <v>0.3032</v>
+      <c r="G2" s="5">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.12640000000000001</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -13389,20 +13497,20 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f aca="false">SUM(D11:D15)</f>
+      <c r="B3" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="5">
+        <f>SUM(D11:D15)</f>
         <v>0.3</v>
       </c>
-      <c r="D3" s="5" t="n">
-        <f aca="false">B3*C3</f>
-        <v>0.0675</v>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -13429,20 +13537,20 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f aca="false">SUM(D20:D24)</f>
+      <c r="B4" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <f>SUM(D20:D24)</f>
         <v>0.36</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <f aca="false">B4*C4</f>
-        <v>0.081</v>
+      <c r="D4" s="5">
+        <f>B4*C4</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -13467,20 +13575,20 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>0.17</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <f aca="false">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.91</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <f aca="false">B5*C5</f>
-        <v>0.1547</v>
+      <c r="C5" s="5">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>-0.13</v>
+      </c>
+      <c r="D5" s="5">
+        <f ca="1">B5*C5</f>
+        <v>-2.2100000000000002E-2</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -13505,7 +13613,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -13533,7 +13641,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -13561,7 +13669,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -13589,7 +13697,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -13617,7 +13725,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -13655,18 +13763,18 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="7" t="n">
+      <c r="B11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="5" t="n">
-        <f aca="false">B11*C11</f>
+      <c r="D11" s="5">
+        <f>B11*C11</f>
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -13694,19 +13802,19 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="7" t="n">
+      <c r="B12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="7">
         <v>-0.2</v>
       </c>
-      <c r="D12" s="5" t="n">
-        <f aca="false">B12*C12</f>
-        <v>-0.04</v>
+      <c r="D12" s="5">
+        <f>B12*C12</f>
+        <v>-4.0000000000000008E-2</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>46</v>
@@ -13733,18 +13841,18 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="7" t="n">
+      <c r="B13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="7">
         <v>0.5</v>
       </c>
-      <c r="D13" s="5" t="n">
-        <f aca="false">B13*C13</f>
+      <c r="D13" s="5">
+        <f>B13*C13</f>
         <v>0.1</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -13772,19 +13880,19 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="7" t="n">
+      <c r="B14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="7">
         <v>0.7</v>
       </c>
-      <c r="D14" s="5" t="n">
-        <f aca="false">B14*C14</f>
-        <v>0.14</v>
+      <c r="D14" s="5">
+        <f>B14*C14</f>
+        <v>0.13999999999999999</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>20</v>
@@ -13811,18 +13919,18 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="7" t="n">
+      <c r="B15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="7">
         <v>0.5</v>
       </c>
-      <c r="D15" s="5" t="n">
-        <f aca="false">B15*C15</f>
+      <c r="D15" s="5">
+        <f>B15*C15</f>
         <v>0.1</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -13850,7 +13958,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -13878,7 +13986,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -13906,7 +14014,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -13934,7 +14042,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -13972,19 +14080,19 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="16.5" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="9" t="n">
+      <c r="B20" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
         <v>0.88</v>
       </c>
-      <c r="D20" s="5" t="n">
-        <f aca="false">B20*C20</f>
-        <v>0.176</v>
+      <c r="D20" s="5">
+        <f>B20*C20</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>27</v>
@@ -14011,19 +14119,19 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="16.5" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="9" t="n">
+      <c r="B21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="9">
         <v>-0.72</v>
       </c>
-      <c r="D21" s="5" t="n">
-        <f aca="false">B21*C21</f>
-        <v>-0.144</v>
+      <c r="D21" s="5">
+        <f>B21*C21</f>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>29</v>
@@ -14050,19 +14158,19 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="16.5" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="9" t="n">
+      <c r="B22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="9">
         <v>0.72</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <f aca="false">B22*C22</f>
-        <v>0.144</v>
+      <c r="D22" s="5">
+        <f>B22*C22</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>27</v>
@@ -14089,19 +14197,19 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="16.5" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="9" t="n">
+      <c r="B23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="9">
         <v>0.72</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <f aca="false">B23*C23</f>
-        <v>0.144</v>
+      <c r="D23" s="5">
+        <f>B23*C23</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>27</v>
@@ -14128,19 +14236,19 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="16.5" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <f aca="false">B24*C24</f>
-        <v>0.04</v>
+      <c r="B24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="5">
+        <f>B24*C24</f>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>33</v>
@@ -14167,14 +14275,10 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="15" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data/Airbus.xlsx
+++ b/data/Airbus.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="69">
   <si>
     <t>Critère</t>
   </si>
@@ -331,12 +331,6 @@
     <t>Positionnement à la vente conseillé (Traversée légère de la MACD à la basse de la ligne du signal)</t>
   </si>
   <si>
-    <t>Note(de -1 à 1)</t>
-  </si>
-  <si>
-    <t>Final note</t>
-  </si>
-  <si>
     <r>
       <t>12h</t>
     </r>
@@ -354,6 +348,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -500,7 +495,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -528,7 +523,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -990,7 +984,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.4909</v>
+        <v>0.19850000000000001</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -1099,11 +1093,11 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.87</v>
+        <v>-0.85</v>
       </c>
       <c r="D5" s="5">
         <f ca="1">B5*C5</f>
-        <v>0.1479</v>
+        <v>-0.14450000000000002</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1960,7 +1954,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.36940000000000006</v>
+        <v>0.30140000000000006</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -2069,11 +2063,11 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.72</v>
+        <v>0.32</v>
       </c>
       <c r="D5" s="5">
         <f ca="1">B5*C5</f>
-        <v>0.12240000000000001</v>
+        <v>5.4400000000000004E-2</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2845,7 +2839,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.28080000000000005</v>
+        <v>0.20770000000000005</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -2954,11 +2948,11 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.99</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D5" s="5">
         <f ca="1">B5*C5</f>
-        <v>0.16830000000000001</v>
+        <v>9.5200000000000021E-2</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3731,7 +3725,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5">
         <f ca="1">SUM(D2:D5)</f>
-        <v>-3.0999999999999917E-3</v>
+        <v>0.10910000000000003</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -3840,11 +3834,11 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.93</v>
+        <v>-0.27</v>
       </c>
       <c r="D5" s="5">
         <f ca="1">B5*C5</f>
-        <v>-0.15810000000000002</v>
+        <v>-4.5900000000000003E-2</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4616,7 +4610,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.26</v>
+        <v>0.38240000000000002</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -4725,11 +4719,11 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-1</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="D5" s="5">
         <f ca="1">B5*C5</f>
-        <v>-0.17</v>
+        <v>-4.760000000000001E-2</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -5428,7 +5422,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5501,7 +5497,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.53139999999999998</v>
+        <v>0.33079999999999998</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -5610,11 +5606,11 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.82</v>
+        <v>-0.36</v>
       </c>
       <c r="D5" s="5">
         <f ca="1">B5*C5</f>
-        <v>0.1394</v>
+        <v>-6.1200000000000004E-2</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -6305,7 +6301,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6314,7 +6310,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6330,7 +6326,7 @@
     <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6338,37 +6334,35 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="5"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="5" t="s">
@@ -6377,20 +6371,20 @@
       <c r="B2" s="5">
         <v>0.38</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>0.2</v>
       </c>
       <c r="D2" s="5">
         <f>B2*C2</f>
         <v>7.6000000000000012E-2</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.27929999999999999</v>
+        <v>0.38980000000000004</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -6429,8 +6423,8 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="18" t="s">
-        <v>70</v>
+      <c r="G3" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -6499,11 +6493,11 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.19</v>
+        <v>0.84</v>
       </c>
       <c r="D5" s="5">
         <f ca="1">B5*C5</f>
-        <v>3.2300000000000002E-2</v>
+        <v>0.14280000000000001</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -6640,7 +6634,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -6648,35 +6642,35 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="5" t="s">
@@ -6685,7 +6679,7 @@
       <c r="B11" s="5">
         <v>0.2</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>0.7</v>
       </c>
       <c r="D11" s="5">
@@ -6724,7 +6718,7 @@
       <c r="B12" s="5">
         <v>0.2</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>-0.6</v>
       </c>
       <c r="D12" s="5">
@@ -6763,7 +6757,7 @@
       <c r="B13" s="5">
         <v>0.2</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>0.9</v>
       </c>
       <c r="D13" s="5">
@@ -6802,7 +6796,7 @@
       <c r="B14" s="5">
         <v>0.2</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <v>-0.3</v>
       </c>
       <c r="D14" s="5">
@@ -6841,7 +6835,7 @@
       <c r="B15" s="5">
         <v>0.2</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>0.6</v>
       </c>
       <c r="D15" s="5">
@@ -6957,43 +6951,43 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>68</v>
+      <c r="C19" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
+      <c r="E19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="5" t="s">
@@ -7274,7 +7268,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.4899</v>
+        <v>0.5171</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -7383,11 +7377,11 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.52</v>
+        <v>0.68</v>
       </c>
       <c r="D5" s="5">
         <f ca="1">B5*C5</f>
-        <v>8.8400000000000006E-2</v>
+        <v>0.11560000000000002</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -8159,7 +8153,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.42369999999999997</v>
+        <v>0.33360000000000001</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -8268,11 +8262,11 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.04</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="D5" s="5">
         <f ca="1">B5*C5</f>
-        <v>-6.8000000000000005E-3</v>
+        <v>-9.69E-2</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -9044,7 +9038,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.51070000000000004</v>
+        <v>0.25060000000000004</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -9153,11 +9147,11 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.71</v>
+        <v>-0.82</v>
       </c>
       <c r="D5" s="5">
         <f ca="1">B5*C5</f>
-        <v>0.1207</v>
+        <v>-0.1394</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -9931,7 +9925,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.1431</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -10040,11 +10034,11 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.77</v>
+        <v>0</v>
       </c>
       <c r="D5" s="5">
         <f ca="1">B5*C5</f>
-        <v>-0.13090000000000002</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -10817,7 +10811,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.2452</v>
+        <v>0.41010000000000002</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -10926,11 +10920,11 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.14000000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="D5" s="5">
         <f ca="1">B5*C5</f>
-        <v>-2.3800000000000005E-2</v>
+        <v>0.1411</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -11703,7 +11697,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.13075000000000001</v>
+        <v>0.11545</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -11812,11 +11806,11 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.25</v>
+        <v>-0.34</v>
       </c>
       <c r="D5" s="5">
         <f ca="1">B5*C5</f>
-        <v>-4.2500000000000003E-2</v>
+        <v>-5.7800000000000011E-2</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -12590,7 +12584,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.34690000000000004</v>
+        <v>0.20240000000000002</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -12699,11 +12693,11 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.03</v>
+        <v>-0.88</v>
       </c>
       <c r="D5" s="5">
         <f ca="1">B5*C5</f>
-        <v>-5.1000000000000004E-3</v>
+        <v>-0.14960000000000001</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -13475,7 +13469,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.12640000000000001</v>
+        <v>7.5400000000000023E-2</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -13584,11 +13578,11 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.13</v>
+        <v>-0.43</v>
       </c>
       <c r="D5" s="5">
         <f ca="1">B5*C5</f>
-        <v>-2.2100000000000002E-2</v>
+        <v>-7.3099999999999998E-2</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
